--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/project-plan.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/project-plan.xlsx
@@ -619,7 +619,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>November 03, 2025</t>
+          <t>November 09, 2025</t>
         </is>
       </c>
     </row>

--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/project-plan.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/project-plan.xlsx
@@ -207,10 +207,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>2</row>
+      <row>14</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1428750" cy="476250"/>
+    <ext cx="1143000" cy="285750"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -218,62 +218,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>12</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1428750" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>14</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1905000" cy="476250"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="3" name="Image 3" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -595,7 +539,7 @@
   <sheetData>
     <row r="1" ht="20" customHeight="1"/>
     <row r="2" ht="10" customHeight="1"/>
-    <row r="3" ht="60" customHeight="1"/>
+    <row r="3" ht="20" customHeight="1"/>
     <row r="4" ht="30" customHeight="1">
       <c r="B4" s="1" t="inlineStr">
         <is>
@@ -638,7 +582,7 @@
     <row r="9">
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Purpose:</t>
+          <t>Customer Name:</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -661,9 +605,9 @@
     </row>
     <row r="11" ht="20" customHeight="1"/>
     <row r="12" ht="10" customHeight="1"/>
-    <row r="13" ht="60" customHeight="1"/>
+    <row r="13" ht="10" customHeight="1"/>
     <row r="14" ht="10" customHeight="1"/>
-    <row r="15" ht="60" customHeight="1"/>
+    <row r="15" ht="40" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/project-plan.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/project-plan.xlsx
@@ -563,7 +563,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>November 09, 2025</t>
+          <t>November 10, 2025</t>
         </is>
       </c>
     </row>

--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/project-plan.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/project-plan.xlsx
@@ -563,7 +563,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>November 10, 2025</t>
+          <t>November 11, 2025</t>
         </is>
       </c>
     </row>

--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/project-plan.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/project-plan.xlsx
@@ -563,7 +563,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>November 11, 2025</t>
+          <t>November 15, 2025</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="26" customHeight="1">
+    <row r="6">
       <c r="A6" s="6" t="inlineStr">
         <is>
           <t>PRJ-005</t>
@@ -1138,7 +1138,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="26" customHeight="1">
+    <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
           <t>PRJ-006</t>
@@ -1219,7 +1219,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="26" customHeight="1">
+    <row r="8">
       <c r="A8" s="6" t="inlineStr">
         <is>
           <t>PRJ-007</t>
@@ -1300,7 +1300,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="26" customHeight="1">
+    <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
           <t>PRJ-008</t>
@@ -1381,7 +1381,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="26" customHeight="1">
+    <row r="10">
       <c r="A10" s="6" t="inlineStr">
         <is>
           <t>PRJ-009</t>
@@ -1462,7 +1462,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="26" customHeight="1">
+    <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
           <t>PRJ-010</t>
@@ -1543,7 +1543,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="26" customHeight="1">
+    <row r="12">
       <c r="A12" s="6" t="inlineStr">
         <is>
           <t>PRJ-011</t>
@@ -1624,7 +1624,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="26" customHeight="1">
+    <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
           <t>PRJ-012</t>
@@ -1705,7 +1705,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="26" customHeight="1">
+    <row r="14">
       <c r="A14" s="6" t="inlineStr">
         <is>
           <t>PRJ-013</t>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="26" customHeight="1">
+    <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
           <t>PRJ-014</t>
@@ -1867,7 +1867,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="26" customHeight="1">
+    <row r="16">
       <c r="A16" s="6" t="inlineStr">
         <is>
           <t>PRJ-015</t>
@@ -1948,7 +1948,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="26" customHeight="1">
+    <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
           <t>PRJ-016</t>
@@ -2029,7 +2029,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="26" customHeight="1">
+    <row r="18">
       <c r="A18" s="6" t="inlineStr">
         <is>
           <t>PRJ-017</t>
@@ -2110,7 +2110,7 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="26" customHeight="1">
+    <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
           <t>PRJ-018</t>
@@ -2191,7 +2191,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="26" customHeight="1">
+    <row r="20">
       <c r="A20" s="6" t="inlineStr">
         <is>
           <t>PRJ-019</t>
@@ -2272,7 +2272,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="26" customHeight="1">
+    <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
           <t>PRJ-020</t>
@@ -2353,7 +2353,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="26" customHeight="1">
+    <row r="22">
       <c r="A22" s="6" t="inlineStr">
         <is>
           <t>PRJ-021</t>
@@ -2434,7 +2434,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="26" customHeight="1">
+    <row r="23">
       <c r="A23" s="7" t="inlineStr">
         <is>
           <t>PRJ-022</t>
@@ -2515,7 +2515,7 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="26" customHeight="1">
+    <row r="24">
       <c r="A24" s="6" t="inlineStr">
         <is>
           <t>PRJ-023</t>
@@ -2596,7 +2596,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="26" customHeight="1">
+    <row r="25">
       <c r="A25" s="7" t="inlineStr">
         <is>
           <t>PRJ-024</t>
@@ -2677,7 +2677,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="26" customHeight="1">
+    <row r="26">
       <c r="A26" s="6" t="inlineStr">
         <is>
           <t>PRJ-025</t>
@@ -2758,7 +2758,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="26" customHeight="1">
+    <row r="27">
       <c r="A27" s="7" t="inlineStr">
         <is>
           <t>PRJ-026</t>

--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/project-plan.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/project-plan.xlsx
@@ -12,6 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Project Plan'!$A$1:$Q$27</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Project Plan'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -19,8 +20,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="7">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="12">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,26 +32,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="Segoe UI"/>
+      <color rgb="0095A5A6"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Segoe UI Light"/>
+      <color rgb="002C3E50"/>
+      <sz val="28"/>
+    </font>
+    <font>
+      <name val="Segoe UI"/>
+      <color rgb="005D6D7E"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Segoe UI"/>
       <b val="1"/>
-      <color rgb="001F4E78"/>
-      <sz val="24"/>
+      <color rgb="005D6D7E"/>
+      <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <color rgb="0044546A"/>
-      <sz val="14"/>
+      <color rgb="002C3E50"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Segoe UI"/>
+      <b val="1"/>
+      <color rgb="00CC0000"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="005D6D7E"/>
+      <sz val="11"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Segoe UI Semibold"/>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
       <b val="1"/>
-      <color rgb="0044546A"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <color rgb="0044546A"/>
-      <sz val="11"/>
+      <color rgb="00CC0000"/>
+      <sz val="12"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -62,12 +93,36 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CC0000"/>
+        <bgColor rgb="00CC0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002C3E50"/>
+        <bgColor rgb="002C3E50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F8FAFB"/>
+        <bgColor rgb="00F8FAFB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E8F4F8"/>
+        <bgColor rgb="00E8F4F8"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -88,13 +143,41 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00BDC3C7"/>
+      </left>
+      <right style="thin">
+        <color rgb="00BDC3C7"/>
+      </right>
+      <top style="thin">
+        <color rgb="00BDC3C7"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="002C3E50"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00DEE2E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="00DEE2E6"/>
+      </right>
+      <top style="thin">
+        <color rgb="00DEE2E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00DEE2E6"/>
+      </bottom>
     </border>
     <border>
       <left style="thin"/>
@@ -106,23 +189,65 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -207,10 +332,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>14</row>
+      <row>12</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1143000" cy="285750"/>
+    <ext cx="1238250" cy="314325"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -523,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B4:C10"/>
+  <dimension ref="B1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,83 +656,107 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="3" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="3" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1"/>
-    <row r="2" ht="10" customHeight="1"/>
-    <row r="3" ht="20" customHeight="1"/>
-    <row r="4" ht="30" customHeight="1">
-      <c r="B4" s="1" t="inlineStr">
+    <row r="1" ht="15" customHeight="1">
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+    </row>
+    <row r="2" ht="60" customHeight="1">
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>[VENDOR LOGO]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1"/>
+    <row r="4" ht="40" customHeight="1">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>Project Plan</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="20" customHeight="1">
-      <c r="B5" s="2" t="inlineStr">
+    <row r="5" ht="25" customHeight="1">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>Delivery Document</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="20" customHeight="1"/>
-    <row r="7">
-      <c r="B7" s="3" t="inlineStr">
+    <row r="6" ht="30" customHeight="1"/>
+    <row r="7" ht="18" customHeight="1">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Generated:</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>November 15, 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="3" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>November 16, 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>Solution:</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>Sample Solution</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>Customer Name:</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
+    <row r="9" ht="18" customHeight="1">
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Customer:</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>Data table for project plan</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="3" t="inlineStr">
+    <row r="10" ht="18" customHeight="1">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>Version:</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="20" customHeight="1"/>
-    <row r="12" ht="10" customHeight="1"/>
-    <row r="13" ht="10" customHeight="1"/>
-    <row r="14" ht="10" customHeight="1"/>
-    <row r="15" ht="40" customHeight="1"/>
+    <row r="11" ht="18" customHeight="1">
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Status:</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="inlineStr">
+        <is>
+          <t>DRAFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="40" customHeight="1"/>
+    <row r="13" ht="30" customHeight="1">
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>eoframework.org</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
@@ -618,7 +767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Q27"/>
   <sheetViews>
@@ -649,2191 +798,2191 @@
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="19" t="inlineStr">
         <is>
           <t>Task ID</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="19" t="inlineStr">
         <is>
           <t>Phase</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="19" t="inlineStr">
         <is>
           <t>Task Name</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="19" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="19" t="inlineStr">
         <is>
           <t>Owner</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="19" t="inlineStr">
         <is>
           <t>Start Date</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="19" t="inlineStr">
         <is>
           <t>End Date</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="19" t="inlineStr">
         <is>
           <t>Duration Days</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="19" t="inlineStr">
         <is>
           <t>Predecessor Tasks</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="J1" s="19" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="K1" s="5" t="inlineStr">
+      <c r="K1" s="19" t="inlineStr">
         <is>
           <t>Progress %</t>
         </is>
       </c>
-      <c r="L1" s="5" t="inlineStr">
+      <c r="L1" s="19" t="inlineStr">
         <is>
           <t>Priority</t>
         </is>
       </c>
-      <c r="M1" s="5" t="inlineStr">
+      <c r="M1" s="19" t="inlineStr">
         <is>
           <t>Milestone</t>
         </is>
       </c>
-      <c r="N1" s="5" t="inlineStr">
+      <c r="N1" s="19" t="inlineStr">
         <is>
           <t>Dependencies</t>
         </is>
       </c>
-      <c r="O1" s="5" t="inlineStr">
+      <c r="O1" s="19" t="inlineStr">
         <is>
           <t>Deliverables</t>
         </is>
       </c>
-      <c r="P1" s="5" t="inlineStr">
+      <c r="P1" s="19" t="inlineStr">
         <is>
           <t>Effort Hours</t>
         </is>
       </c>
-      <c r="Q1" s="5" t="inlineStr">
+      <c r="Q1" s="19" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
     </row>
     <row r="2" ht="26" customHeight="1">
-      <c r="A2" s="6" t="inlineStr">
+      <c r="A2" s="20" t="inlineStr">
         <is>
           <t>PRJ-001</t>
         </is>
       </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="B2" s="20" t="inlineStr">
         <is>
           <t>Planning</t>
         </is>
       </c>
-      <c r="C2" s="6" t="inlineStr">
+      <c r="C2" s="20" t="inlineStr">
         <is>
           <t>Project Kickoff</t>
         </is>
       </c>
-      <c r="D2" s="6" t="inlineStr">
+      <c r="D2" s="20" t="inlineStr">
         <is>
           <t>Formal project initiation and team alignment</t>
         </is>
       </c>
-      <c r="E2" s="6" t="inlineStr">
+      <c r="E2" s="20" t="inlineStr">
         <is>
           <t>Project Manager</t>
         </is>
       </c>
-      <c r="F2" s="6" t="inlineStr">
+      <c r="F2" s="20" t="inlineStr">
         <is>
           <t>[START_DATE]</t>
         </is>
       </c>
-      <c r="G2" s="6" t="inlineStr">
+      <c r="G2" s="20" t="inlineStr">
         <is>
           <t>[START_DATE+1]</t>
         </is>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="H2" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="20" t="n">
         <v/>
       </c>
-      <c r="J2" s="6" t="inlineStr">
+      <c r="J2" s="20" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="K2" s="6" t="n">
+      <c r="K2" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="L2" s="6" t="inlineStr">
+      <c r="L2" s="20" t="inlineStr">
         <is>
           <t>Critical</t>
         </is>
       </c>
-      <c r="M2" s="6" t="inlineStr">
+      <c r="M2" s="20" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="N2" s="6" t="inlineStr">
+      <c r="N2" s="20" t="inlineStr">
         <is>
           <t>Stakeholder availability</t>
         </is>
       </c>
-      <c r="O2" s="6" t="inlineStr">
+      <c r="O2" s="20" t="inlineStr">
         <is>
           <t>Project charter and team assignments</t>
         </is>
       </c>
-      <c r="P2" s="6" t="n">
+      <c r="P2" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="Q2" s="6" t="inlineStr">
+      <c r="Q2" s="20" t="inlineStr">
         <is>
           <t>Executive sponsor approval required</t>
         </is>
       </c>
     </row>
     <row r="3" ht="26" customHeight="1">
-      <c r="A3" s="7" t="inlineStr">
+      <c r="A3" s="21" t="inlineStr">
         <is>
           <t>PRJ-002</t>
         </is>
       </c>
-      <c r="B3" s="7" t="inlineStr">
+      <c r="B3" s="21" t="inlineStr">
         <is>
           <t>Planning</t>
         </is>
       </c>
-      <c r="C3" s="7" t="inlineStr">
+      <c r="C3" s="21" t="inlineStr">
         <is>
           <t>Requirements Gathering</t>
         </is>
       </c>
-      <c r="D3" s="7" t="inlineStr">
+      <c r="D3" s="21" t="inlineStr">
         <is>
           <t>Collect and document detailed business and technical requirements</t>
         </is>
       </c>
-      <c r="E3" s="7" t="inlineStr">
+      <c r="E3" s="21" t="inlineStr">
         <is>
           <t>Business Analyst</t>
         </is>
       </c>
-      <c r="F3" s="7" t="inlineStr">
+      <c r="F3" s="21" t="inlineStr">
         <is>
           <t>[START_DATE+1]</t>
         </is>
       </c>
-      <c r="G3" s="7" t="inlineStr">
+      <c r="G3" s="21" t="inlineStr">
         <is>
           <t>[START_DATE+5]</t>
         </is>
       </c>
-      <c r="H3" s="7" t="n">
+      <c r="H3" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="I3" s="7" t="inlineStr">
+      <c r="I3" s="21" t="inlineStr">
         <is>
           <t>PRJ-001</t>
         </is>
       </c>
-      <c r="J3" s="7" t="inlineStr">
+      <c r="J3" s="21" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="K3" s="7" t="n">
+      <c r="K3" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="L3" s="7" t="inlineStr">
+      <c r="L3" s="21" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="M3" s="7" t="inlineStr">
+      <c r="M3" s="21" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="N3" s="7" t="inlineStr">
+      <c r="N3" s="21" t="inlineStr">
         <is>
           <t>Stakeholder interviews</t>
         </is>
       </c>
-      <c r="O3" s="7" t="inlineStr">
+      <c r="O3" s="21" t="inlineStr">
         <is>
           <t>Requirements specification document</t>
         </is>
       </c>
-      <c r="P3" s="7" t="n">
+      <c r="P3" s="21" t="n">
         <v>32</v>
       </c>
-      <c r="Q3" s="7" t="inlineStr">
+      <c r="Q3" s="21" t="inlineStr">
         <is>
           <t>Include all stakeholder groups</t>
         </is>
       </c>
     </row>
     <row r="4" ht="26" customHeight="1">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="A4" s="20" t="inlineStr">
         <is>
           <t>PRJ-003</t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
+      <c r="B4" s="20" t="inlineStr">
         <is>
           <t>Planning</t>
         </is>
       </c>
-      <c r="C4" s="6" t="inlineStr">
+      <c r="C4" s="20" t="inlineStr">
         <is>
           <t>Solution Architecture Design</t>
         </is>
       </c>
-      <c r="D4" s="6" t="inlineStr">
+      <c r="D4" s="20" t="inlineStr">
         <is>
           <t>Design technical architecture and integration approach</t>
         </is>
       </c>
-      <c r="E4" s="6" t="inlineStr">
+      <c r="E4" s="20" t="inlineStr">
         <is>
           <t>Solution Architect</t>
         </is>
       </c>
-      <c r="F4" s="6" t="inlineStr">
+      <c r="F4" s="20" t="inlineStr">
         <is>
           <t>[START_DATE+3]</t>
         </is>
       </c>
-      <c r="G4" s="6" t="inlineStr">
+      <c r="G4" s="20" t="inlineStr">
         <is>
           <t>[START_DATE+10]</t>
         </is>
       </c>
-      <c r="H4" s="6" t="n">
+      <c r="H4" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="I4" s="6" t="inlineStr">
+      <c r="I4" s="20" t="inlineStr">
         <is>
           <t>PRJ-002</t>
         </is>
       </c>
-      <c r="J4" s="6" t="inlineStr">
+      <c r="J4" s="20" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="K4" s="6" t="n">
+      <c r="K4" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="L4" s="6" t="inlineStr">
+      <c r="L4" s="20" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="M4" s="6" t="inlineStr">
+      <c r="M4" s="20" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="N4" s="6" t="inlineStr">
+      <c r="N4" s="20" t="inlineStr">
         <is>
           <t>Technical requirements</t>
         </is>
       </c>
-      <c r="O4" s="6" t="inlineStr">
+      <c r="O4" s="20" t="inlineStr">
         <is>
           <t>Architecture documentation and diagrams</t>
         </is>
       </c>
-      <c r="P4" s="6" t="n">
+      <c r="P4" s="20" t="n">
         <v>56</v>
       </c>
-      <c r="Q4" s="6" t="inlineStr">
+      <c r="Q4" s="20" t="inlineStr">
         <is>
           <t>Review with technical governance board</t>
         </is>
       </c>
     </row>
     <row r="5" ht="26" customHeight="1">
-      <c r="A5" s="7" t="inlineStr">
+      <c r="A5" s="21" t="inlineStr">
         <is>
           <t>PRJ-004</t>
         </is>
       </c>
-      <c r="B5" s="7" t="inlineStr">
+      <c r="B5" s="21" t="inlineStr">
         <is>
           <t>Planning</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
+      <c r="C5" s="21" t="inlineStr">
         <is>
           <t>Infrastructure Planning</t>
         </is>
       </c>
-      <c r="D5" s="7" t="inlineStr">
+      <c r="D5" s="21" t="inlineStr">
         <is>
           <t>Plan and design infrastructure requirements</t>
         </is>
       </c>
-      <c r="E5" s="7" t="inlineStr">
+      <c r="E5" s="21" t="inlineStr">
         <is>
           <t>Infrastructure Architect</t>
         </is>
       </c>
-      <c r="F5" s="7" t="inlineStr">
+      <c r="F5" s="21" t="inlineStr">
         <is>
           <t>[START_DATE+8]</t>
         </is>
       </c>
-      <c r="G5" s="7" t="inlineStr">
+      <c r="G5" s="21" t="inlineStr">
         <is>
           <t>[START_DATE+15]</t>
         </is>
       </c>
-      <c r="H5" s="7" t="n">
+      <c r="H5" s="21" t="n">
         <v>7</v>
       </c>
-      <c r="I5" s="7" t="inlineStr">
+      <c r="I5" s="21" t="inlineStr">
         <is>
           <t>PRJ-003</t>
         </is>
       </c>
-      <c r="J5" s="7" t="inlineStr">
+      <c r="J5" s="21" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="K5" s="7" t="n">
+      <c r="K5" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="L5" s="7" t="inlineStr">
+      <c r="L5" s="21" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="M5" s="7" t="inlineStr">
+      <c r="M5" s="21" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="N5" s="7" t="inlineStr">
+      <c r="N5" s="21" t="inlineStr">
         <is>
           <t>Architecture design</t>
         </is>
       </c>
-      <c r="O5" s="7" t="inlineStr">
+      <c r="O5" s="21" t="inlineStr">
         <is>
           <t>Infrastructure specification and sizing</t>
         </is>
       </c>
-      <c r="P5" s="7" t="n">
+      <c r="P5" s="21" t="n">
         <v>40</v>
       </c>
-      <c r="Q5" s="7" t="inlineStr">
+      <c r="Q5" s="21" t="inlineStr">
         <is>
           <t>Include capacity planning and scaling</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="6" t="inlineStr">
+    <row r="6" ht="26" customHeight="1">
+      <c r="A6" s="20" t="inlineStr">
         <is>
           <t>PRJ-005</t>
         </is>
       </c>
-      <c r="B6" s="6" t="inlineStr">
+      <c r="B6" s="20" t="inlineStr">
         <is>
           <t>Planning</t>
         </is>
       </c>
-      <c r="C6" s="6" t="inlineStr">
+      <c r="C6" s="20" t="inlineStr">
         <is>
           <t>Risk Assessment</t>
         </is>
       </c>
-      <c r="D6" s="6" t="inlineStr">
+      <c r="D6" s="20" t="inlineStr">
         <is>
           <t>Identify and assess project risks with mitigation strategies</t>
         </is>
       </c>
-      <c r="E6" s="6" t="inlineStr">
+      <c r="E6" s="20" t="inlineStr">
         <is>
           <t>Risk Manager</t>
         </is>
       </c>
-      <c r="F6" s="6" t="inlineStr">
+      <c r="F6" s="20" t="inlineStr">
         <is>
           <t>[START_DATE+10]</t>
         </is>
       </c>
-      <c r="G6" s="6" t="inlineStr">
+      <c r="G6" s="20" t="inlineStr">
         <is>
           <t>[START_DATE+12]</t>
         </is>
       </c>
-      <c r="H6" s="6" t="n">
+      <c r="H6" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="I6" s="6" t="inlineStr">
+      <c r="I6" s="20" t="inlineStr">
         <is>
           <t>PRJ-003</t>
         </is>
       </c>
-      <c r="J6" s="6" t="inlineStr">
+      <c r="J6" s="20" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="K6" s="6" t="n">
+      <c r="K6" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="L6" s="6" t="inlineStr">
+      <c r="L6" s="20" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="M6" s="6" t="inlineStr">
+      <c r="M6" s="20" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="N6" s="6" t="inlineStr">
+      <c r="N6" s="20" t="inlineStr">
         <is>
           <t>Project scope</t>
         </is>
       </c>
-      <c r="O6" s="6" t="inlineStr">
+      <c r="O6" s="20" t="inlineStr">
         <is>
           <t>Risk register and mitigation plans</t>
         </is>
       </c>
-      <c r="P6" s="6" t="n">
+      <c r="P6" s="20" t="n">
         <v>16</v>
       </c>
-      <c r="Q6" s="6" t="inlineStr">
+      <c r="Q6" s="20" t="inlineStr">
         <is>
           <t>Regular risk review meetings scheduled</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="inlineStr">
+      <c r="A7" s="21" t="inlineStr">
         <is>
           <t>PRJ-006</t>
         </is>
       </c>
-      <c r="B7" s="7" t="inlineStr">
+      <c r="B7" s="21" t="inlineStr">
         <is>
           <t>Design</t>
         </is>
       </c>
-      <c r="C7" s="7" t="inlineStr">
+      <c r="C7" s="21" t="inlineStr">
         <is>
           <t>Detailed Design</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="D7" s="21" t="inlineStr">
         <is>
           <t>Create detailed technical specifications and design documents</t>
         </is>
       </c>
-      <c r="E7" s="7" t="inlineStr">
+      <c r="E7" s="21" t="inlineStr">
         <is>
           <t>Technical Lead</t>
         </is>
       </c>
-      <c r="F7" s="7" t="inlineStr">
+      <c r="F7" s="21" t="inlineStr">
         <is>
           <t>[START_DATE+15]</t>
         </is>
       </c>
-      <c r="G7" s="7" t="inlineStr">
+      <c r="G7" s="21" t="inlineStr">
         <is>
           <t>[START_DATE+25]</t>
         </is>
       </c>
-      <c r="H7" s="7" t="n">
+      <c r="H7" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="I7" s="7" t="inlineStr">
+      <c r="I7" s="21" t="inlineStr">
         <is>
           <t>PRJ-004</t>
         </is>
       </c>
-      <c r="J7" s="7" t="inlineStr">
+      <c r="J7" s="21" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="K7" s="7" t="n">
+      <c r="K7" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="L7" s="7" t="inlineStr">
+      <c r="L7" s="21" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="M7" s="7" t="inlineStr">
+      <c r="M7" s="21" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="N7" s="7" t="inlineStr">
+      <c r="N7" s="21" t="inlineStr">
         <is>
           <t>Architecture approval</t>
         </is>
       </c>
-      <c r="O7" s="7" t="inlineStr">
+      <c r="O7" s="21" t="inlineStr">
         <is>
           <t>Detailed technical specifications</t>
         </is>
       </c>
-      <c r="P7" s="7" t="n">
+      <c r="P7" s="21" t="n">
         <v>80</v>
       </c>
-      <c r="Q7" s="7" t="inlineStr">
+      <c r="Q7" s="21" t="inlineStr">
         <is>
           <t>Include interface specifications</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="inlineStr">
+      <c r="A8" s="20" t="inlineStr">
         <is>
           <t>PRJ-007</t>
         </is>
       </c>
-      <c r="B8" s="6" t="inlineStr">
+      <c r="B8" s="20" t="inlineStr">
         <is>
           <t>Design</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr">
+      <c r="C8" s="20" t="inlineStr">
         <is>
           <t>Security Design</t>
         </is>
       </c>
-      <c r="D8" s="6" t="inlineStr">
+      <c r="D8" s="20" t="inlineStr">
         <is>
           <t>Design security controls and compliance framework</t>
         </is>
       </c>
-      <c r="E8" s="6" t="inlineStr">
+      <c r="E8" s="20" t="inlineStr">
         <is>
           <t>Security Architect</t>
         </is>
       </c>
-      <c r="F8" s="6" t="inlineStr">
+      <c r="F8" s="20" t="inlineStr">
         <is>
           <t>[START_DATE+18]</t>
         </is>
       </c>
-      <c r="G8" s="6" t="inlineStr">
+      <c r="G8" s="20" t="inlineStr">
         <is>
           <t>[START_DATE+23]</t>
         </is>
       </c>
-      <c r="H8" s="6" t="n">
+      <c r="H8" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="I8" s="6" t="inlineStr">
+      <c r="I8" s="20" t="inlineStr">
         <is>
           <t>PRJ-003</t>
         </is>
       </c>
-      <c r="J8" s="6" t="inlineStr">
+      <c r="J8" s="20" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="K8" s="6" t="n">
+      <c r="K8" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="L8" s="6" t="inlineStr">
+      <c r="L8" s="20" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="M8" s="6" t="inlineStr">
+      <c r="M8" s="20" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="N8" s="6" t="inlineStr">
+      <c r="N8" s="20" t="inlineStr">
         <is>
           <t>Architecture design</t>
         </is>
       </c>
-      <c r="O8" s="6" t="inlineStr">
+      <c r="O8" s="20" t="inlineStr">
         <is>
           <t>Security design document</t>
         </is>
       </c>
-      <c r="P8" s="6" t="n">
+      <c r="P8" s="20" t="n">
         <v>40</v>
       </c>
-      <c r="Q8" s="6" t="inlineStr">
+      <c r="Q8" s="20" t="inlineStr">
         <is>
           <t>Compliance review required</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7" t="inlineStr">
+      <c r="A9" s="21" t="inlineStr">
         <is>
           <t>PRJ-008</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B9" s="21" t="inlineStr">
         <is>
           <t>Design</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr">
+      <c r="C9" s="21" t="inlineStr">
         <is>
           <t>Integration Design</t>
         </is>
       </c>
-      <c r="D9" s="7" t="inlineStr">
+      <c r="D9" s="21" t="inlineStr">
         <is>
           <t>Design integration points and data flow</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr">
+      <c r="E9" s="21" t="inlineStr">
         <is>
           <t>Integration Specialist</t>
         </is>
       </c>
-      <c r="F9" s="7" t="inlineStr">
+      <c r="F9" s="21" t="inlineStr">
         <is>
           <t>[START_DATE+20]</t>
         </is>
       </c>
-      <c r="G9" s="7" t="inlineStr">
+      <c r="G9" s="21" t="inlineStr">
         <is>
           <t>[START_DATE+27]</t>
         </is>
       </c>
-      <c r="H9" s="7" t="n">
+      <c r="H9" s="21" t="n">
         <v>7</v>
       </c>
-      <c r="I9" s="7" t="inlineStr">
+      <c r="I9" s="21" t="inlineStr">
         <is>
           <t>PRJ-006</t>
         </is>
       </c>
-      <c r="J9" s="7" t="inlineStr">
+      <c r="J9" s="21" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="K9" s="7" t="n">
+      <c r="K9" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="L9" s="7" t="inlineStr">
+      <c r="L9" s="21" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="M9" s="7" t="inlineStr">
+      <c r="M9" s="21" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="N9" s="7" t="inlineStr">
+      <c r="N9" s="21" t="inlineStr">
         <is>
           <t>Technical specifications</t>
         </is>
       </c>
-      <c r="O9" s="7" t="inlineStr">
+      <c r="O9" s="21" t="inlineStr">
         <is>
           <t>Integration specification document</t>
         </is>
       </c>
-      <c r="P9" s="7" t="n">
+      <c r="P9" s="21" t="n">
         <v>56</v>
       </c>
-      <c r="Q9" s="7" t="inlineStr">
+      <c r="Q9" s="21" t="inlineStr">
         <is>
           <t>API documentation and testing approach</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="A10" s="20" t="inlineStr">
         <is>
           <t>PRJ-009</t>
         </is>
       </c>
-      <c r="B10" s="6" t="inlineStr">
+      <c r="B10" s="20" t="inlineStr">
         <is>
           <t>Build</t>
         </is>
       </c>
-      <c r="C10" s="6" t="inlineStr">
+      <c r="C10" s="20" t="inlineStr">
         <is>
           <t>Environment Setup</t>
         </is>
       </c>
-      <c r="D10" s="6" t="inlineStr">
+      <c r="D10" s="20" t="inlineStr">
         <is>
           <t>Provision and configure development and test environments</t>
         </is>
       </c>
-      <c r="E10" s="6" t="inlineStr">
+      <c r="E10" s="20" t="inlineStr">
         <is>
           <t>DevOps Engineer</t>
         </is>
       </c>
-      <c r="F10" s="6" t="inlineStr">
+      <c r="F10" s="20" t="inlineStr">
         <is>
           <t>[START_DATE+25]</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
+      <c r="G10" s="20" t="inlineStr">
         <is>
           <t>[START_DATE+32]</t>
         </is>
       </c>
-      <c r="H10" s="6" t="n">
+      <c r="H10" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="I10" s="6" t="inlineStr">
+      <c r="I10" s="20" t="inlineStr">
         <is>
           <t>PRJ-004</t>
         </is>
       </c>
-      <c r="J10" s="6" t="inlineStr">
+      <c r="J10" s="20" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="K10" s="6" t="n">
+      <c r="K10" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="L10" s="6" t="inlineStr">
+      <c r="L10" s="20" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="M10" s="6" t="inlineStr">
+      <c r="M10" s="20" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="N10" s="6" t="inlineStr">
+      <c r="N10" s="20" t="inlineStr">
         <is>
           <t>Infrastructure approval</t>
         </is>
       </c>
-      <c r="O10" s="6" t="inlineStr">
+      <c r="O10" s="20" t="inlineStr">
         <is>
           <t>Development and test environments</t>
         </is>
       </c>
-      <c r="P10" s="6" t="n">
+      <c r="P10" s="20" t="n">
         <v>56</v>
       </c>
-      <c r="Q10" s="6" t="inlineStr">
+      <c r="Q10" s="20" t="inlineStr">
         <is>
           <t>Automated provisioning preferred</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="inlineStr">
+      <c r="A11" s="21" t="inlineStr">
         <is>
           <t>PRJ-010</t>
         </is>
       </c>
-      <c r="B11" s="7" t="inlineStr">
+      <c r="B11" s="21" t="inlineStr">
         <is>
           <t>Build</t>
         </is>
       </c>
-      <c r="C11" s="7" t="inlineStr">
+      <c r="C11" s="21" t="inlineStr">
         <is>
           <t>Core Development</t>
         </is>
       </c>
-      <c r="D11" s="7" t="inlineStr">
+      <c r="D11" s="21" t="inlineStr">
         <is>
           <t>Develop core application functionality and features</t>
         </is>
       </c>
-      <c r="E11" s="7" t="inlineStr">
+      <c r="E11" s="21" t="inlineStr">
         <is>
           <t>Development Team</t>
         </is>
       </c>
-      <c r="F11" s="7" t="inlineStr">
+      <c r="F11" s="21" t="inlineStr">
         <is>
           <t>[START_DATE+30]</t>
         </is>
       </c>
-      <c r="G11" s="7" t="inlineStr">
+      <c r="G11" s="21" t="inlineStr">
         <is>
           <t>[START_DATE+50]</t>
         </is>
       </c>
-      <c r="H11" s="7" t="n">
+      <c r="H11" s="21" t="n">
         <v>20</v>
       </c>
-      <c r="I11" s="7" t="inlineStr">
+      <c r="I11" s="21" t="inlineStr">
         <is>
           <t>PRJ-006</t>
         </is>
       </c>
-      <c r="J11" s="7" t="inlineStr">
+      <c r="J11" s="21" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="K11" s="7" t="n">
+      <c r="K11" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="L11" s="7" t="inlineStr">
+      <c r="L11" s="21" t="inlineStr">
         <is>
           <t>Critical</t>
         </is>
       </c>
-      <c r="M11" s="7" t="inlineStr">
+      <c r="M11" s="21" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="N11" s="7" t="inlineStr">
+      <c r="N11" s="21" t="inlineStr">
         <is>
           <t>Environment setup</t>
         </is>
       </c>
-      <c r="O11" s="7" t="inlineStr">
+      <c r="O11" s="21" t="inlineStr">
         <is>
           <t>Core application components</t>
         </is>
       </c>
-      <c r="P11" s="7" t="n">
+      <c r="P11" s="21" t="n">
         <v>320</v>
       </c>
-      <c r="Q11" s="7" t="inlineStr">
+      <c r="Q11" s="21" t="inlineStr">
         <is>
           <t>Follow coding standards and best practices</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="inlineStr">
+      <c r="A12" s="20" t="inlineStr">
         <is>
           <t>PRJ-011</t>
         </is>
       </c>
-      <c r="B12" s="6" t="inlineStr">
+      <c r="B12" s="20" t="inlineStr">
         <is>
           <t>Build</t>
         </is>
       </c>
-      <c r="C12" s="6" t="inlineStr">
+      <c r="C12" s="20" t="inlineStr">
         <is>
           <t>Integration Development</t>
         </is>
       </c>
-      <c r="D12" s="6" t="inlineStr">
+      <c r="D12" s="20" t="inlineStr">
         <is>
           <t>Develop integration components and APIs</t>
         </is>
       </c>
-      <c r="E12" s="6" t="inlineStr">
+      <c r="E12" s="20" t="inlineStr">
         <is>
           <t>Integration Developer</t>
         </is>
       </c>
-      <c r="F12" s="6" t="inlineStr">
+      <c r="F12" s="20" t="inlineStr">
         <is>
           <t>[START_DATE+35]</t>
         </is>
       </c>
-      <c r="G12" s="6" t="inlineStr">
+      <c r="G12" s="20" t="inlineStr">
         <is>
           <t>[START_DATE+47]</t>
         </is>
       </c>
-      <c r="H12" s="6" t="n">
+      <c r="H12" s="20" t="n">
         <v>12</v>
       </c>
-      <c r="I12" s="6" t="inlineStr">
+      <c r="I12" s="20" t="inlineStr">
         <is>
           <t>PRJ-008</t>
         </is>
       </c>
-      <c r="J12" s="6" t="inlineStr">
+      <c r="J12" s="20" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="K12" s="6" t="n">
+      <c r="K12" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="L12" s="6" t="inlineStr">
+      <c r="L12" s="20" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="M12" s="6" t="inlineStr">
+      <c r="M12" s="20" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="N12" s="6" t="inlineStr">
+      <c r="N12" s="20" t="inlineStr">
         <is>
           <t>Core development started</t>
         </is>
       </c>
-      <c r="O12" s="6" t="inlineStr">
+      <c r="O12" s="20" t="inlineStr">
         <is>
           <t>Integration components and APIs</t>
         </is>
       </c>
-      <c r="P12" s="6" t="n">
+      <c r="P12" s="20" t="n">
         <v>96</v>
       </c>
-      <c r="Q12" s="6" t="inlineStr">
+      <c r="Q12" s="20" t="inlineStr">
         <is>
           <t>Include error handling and monitoring</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="inlineStr">
+      <c r="A13" s="21" t="inlineStr">
         <is>
           <t>PRJ-012</t>
         </is>
       </c>
-      <c r="B13" s="7" t="inlineStr">
+      <c r="B13" s="21" t="inlineStr">
         <is>
           <t>Build</t>
         </is>
       </c>
-      <c r="C13" s="7" t="inlineStr">
+      <c r="C13" s="21" t="inlineStr">
         <is>
           <t>Security Implementation</t>
         </is>
       </c>
-      <c r="D13" s="7" t="inlineStr">
+      <c r="D13" s="21" t="inlineStr">
         <is>
           <t>Implement security controls and authentication</t>
         </is>
       </c>
-      <c r="E13" s="7" t="inlineStr">
+      <c r="E13" s="21" t="inlineStr">
         <is>
           <t>Security Developer</t>
         </is>
       </c>
-      <c r="F13" s="7" t="inlineStr">
+      <c r="F13" s="21" t="inlineStr">
         <is>
           <t>[START_DATE+38]</t>
         </is>
       </c>
-      <c r="G13" s="7" t="inlineStr">
+      <c r="G13" s="21" t="inlineStr">
         <is>
           <t>[START_DATE+48]</t>
         </is>
       </c>
-      <c r="H13" s="7" t="n">
+      <c r="H13" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="I13" s="7" t="inlineStr">
+      <c r="I13" s="21" t="inlineStr">
         <is>
           <t>PRJ-007</t>
         </is>
       </c>
-      <c r="J13" s="7" t="inlineStr">
+      <c r="J13" s="21" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="K13" s="7" t="n">
+      <c r="K13" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="L13" s="7" t="inlineStr">
+      <c r="L13" s="21" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="M13" s="7" t="inlineStr">
+      <c r="M13" s="21" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="N13" s="7" t="inlineStr">
+      <c r="N13" s="21" t="inlineStr">
         <is>
           <t>Security design approval</t>
         </is>
       </c>
-      <c r="O13" s="7" t="inlineStr">
+      <c r="O13" s="21" t="inlineStr">
         <is>
           <t>Security implementation</t>
         </is>
       </c>
-      <c r="P13" s="7" t="n">
+      <c r="P13" s="21" t="n">
         <v>80</v>
       </c>
-      <c r="Q13" s="7" t="inlineStr">
+      <c r="Q13" s="21" t="inlineStr">
         <is>
           <t>Security testing throughout development</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="inlineStr">
+      <c r="A14" s="20" t="inlineStr">
         <is>
           <t>PRJ-013</t>
         </is>
       </c>
-      <c r="B14" s="6" t="inlineStr">
+      <c r="B14" s="20" t="inlineStr">
         <is>
           <t>Test</t>
         </is>
       </c>
-      <c r="C14" s="6" t="inlineStr">
+      <c r="C14" s="20" t="inlineStr">
         <is>
           <t>Unit Testing</t>
         </is>
       </c>
-      <c r="D14" s="6" t="inlineStr">
+      <c r="D14" s="20" t="inlineStr">
         <is>
           <t>Execute comprehensive unit testing of all components</t>
         </is>
       </c>
-      <c r="E14" s="6" t="inlineStr">
+      <c r="E14" s="20" t="inlineStr">
         <is>
           <t>Development Team</t>
         </is>
       </c>
-      <c r="F14" s="6" t="inlineStr">
+      <c r="F14" s="20" t="inlineStr">
         <is>
           <t>[START_DATE+40]</t>
         </is>
       </c>
-      <c r="G14" s="6" t="inlineStr">
+      <c r="G14" s="20" t="inlineStr">
         <is>
           <t>[START_DATE+52]</t>
         </is>
       </c>
-      <c r="H14" s="6" t="n">
+      <c r="H14" s="20" t="n">
         <v>12</v>
       </c>
-      <c r="I14" s="6" t="inlineStr">
+      <c r="I14" s="20" t="inlineStr">
         <is>
           <t>PRJ-010</t>
         </is>
       </c>
-      <c r="J14" s="6" t="inlineStr">
+      <c r="J14" s="20" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="K14" s="6" t="n">
+      <c r="K14" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="L14" s="6" t="inlineStr">
+      <c r="L14" s="20" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="M14" s="6" t="inlineStr">
+      <c r="M14" s="20" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="N14" s="6" t="inlineStr">
+      <c r="N14" s="20" t="inlineStr">
         <is>
           <t>Core development</t>
         </is>
       </c>
-      <c r="O14" s="6" t="inlineStr">
+      <c r="O14" s="20" t="inlineStr">
         <is>
           <t>Unit test results and coverage reports</t>
         </is>
       </c>
-      <c r="P14" s="6" t="n">
+      <c r="P14" s="20" t="n">
         <v>96</v>
       </c>
-      <c r="Q14" s="6" t="inlineStr">
+      <c r="Q14" s="20" t="inlineStr">
         <is>
           <t>Achieve minimum 80% code coverage</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="inlineStr">
+      <c r="A15" s="21" t="inlineStr">
         <is>
           <t>PRJ-014</t>
         </is>
       </c>
-      <c r="B15" s="7" t="inlineStr">
+      <c r="B15" s="21" t="inlineStr">
         <is>
           <t>Test</t>
         </is>
       </c>
-      <c r="C15" s="7" t="inlineStr">
+      <c r="C15" s="21" t="inlineStr">
         <is>
           <t>Integration Testing</t>
         </is>
       </c>
-      <c r="D15" s="7" t="inlineStr">
+      <c r="D15" s="21" t="inlineStr">
         <is>
           <t>Test integration points and data flow</t>
         </is>
       </c>
-      <c r="E15" s="7" t="inlineStr">
+      <c r="E15" s="21" t="inlineStr">
         <is>
           <t>QA Engineer</t>
         </is>
       </c>
-      <c r="F15" s="7" t="inlineStr">
+      <c r="F15" s="21" t="inlineStr">
         <is>
           <t>[START_DATE+50]</t>
         </is>
       </c>
-      <c r="G15" s="7" t="inlineStr">
+      <c r="G15" s="21" t="inlineStr">
         <is>
           <t>[START_DATE+60]</t>
         </is>
       </c>
-      <c r="H15" s="7" t="n">
+      <c r="H15" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="I15" s="7" t="inlineStr">
+      <c r="I15" s="21" t="inlineStr">
         <is>
           <t>PRJ-011</t>
         </is>
       </c>
-      <c r="J15" s="7" t="inlineStr">
+      <c r="J15" s="21" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="K15" s="7" t="n">
+      <c r="K15" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="L15" s="7" t="inlineStr">
+      <c r="L15" s="21" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="M15" s="7" t="inlineStr">
+      <c r="M15" s="21" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="N15" s="7" t="inlineStr">
+      <c r="N15" s="21" t="inlineStr">
         <is>
           <t>Integration development</t>
         </is>
       </c>
-      <c r="O15" s="7" t="inlineStr">
+      <c r="O15" s="21" t="inlineStr">
         <is>
           <t>Integration test results</t>
         </is>
       </c>
-      <c r="P15" s="7" t="n">
+      <c r="P15" s="21" t="n">
         <v>80</v>
       </c>
-      <c r="Q15" s="7" t="inlineStr">
+      <c r="Q15" s="21" t="inlineStr">
         <is>
           <t>Include negative testing scenarios</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="inlineStr">
+      <c r="A16" s="20" t="inlineStr">
         <is>
           <t>PRJ-015</t>
         </is>
       </c>
-      <c r="B16" s="6" t="inlineStr">
+      <c r="B16" s="20" t="inlineStr">
         <is>
           <t>Test</t>
         </is>
       </c>
-      <c r="C16" s="6" t="inlineStr">
+      <c r="C16" s="20" t="inlineStr">
         <is>
           <t>System Testing</t>
         </is>
       </c>
-      <c r="D16" s="6" t="inlineStr">
+      <c r="D16" s="20" t="inlineStr">
         <is>
           <t>End-to-end system testing and validation</t>
         </is>
       </c>
-      <c r="E16" s="6" t="inlineStr">
+      <c r="E16" s="20" t="inlineStr">
         <is>
           <t>QA Team</t>
         </is>
       </c>
-      <c r="F16" s="6" t="inlineStr">
+      <c r="F16" s="20" t="inlineStr">
         <is>
           <t>[START_DATE+55]</t>
         </is>
       </c>
-      <c r="G16" s="6" t="inlineStr">
+      <c r="G16" s="20" t="inlineStr">
         <is>
           <t>[START_DATE+70]</t>
         </is>
       </c>
-      <c r="H16" s="6" t="n">
+      <c r="H16" s="20" t="n">
         <v>15</v>
       </c>
-      <c r="I16" s="6" t="inlineStr">
+      <c r="I16" s="20" t="inlineStr">
         <is>
           <t>PRJ-013</t>
         </is>
       </c>
-      <c r="J16" s="6" t="inlineStr">
+      <c r="J16" s="20" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="K16" s="6" t="n">
+      <c r="K16" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="L16" s="6" t="inlineStr">
+      <c r="L16" s="20" t="inlineStr">
         <is>
           <t>Critical</t>
         </is>
       </c>
-      <c r="M16" s="6" t="inlineStr">
+      <c r="M16" s="20" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="N16" s="6" t="inlineStr">
+      <c r="N16" s="20" t="inlineStr">
         <is>
           <t>Unit testing completion</t>
         </is>
       </c>
-      <c r="O16" s="6" t="inlineStr">
+      <c r="O16" s="20" t="inlineStr">
         <is>
           <t>System test results and defect reports</t>
         </is>
       </c>
-      <c r="P16" s="6" t="n">
+      <c r="P16" s="20" t="n">
         <v>120</v>
       </c>
-      <c r="Q16" s="6" t="inlineStr">
+      <c r="Q16" s="20" t="inlineStr">
         <is>
           <t>Include performance and load testing</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="inlineStr">
+      <c r="A17" s="21" t="inlineStr">
         <is>
           <t>PRJ-016</t>
         </is>
       </c>
-      <c r="B17" s="7" t="inlineStr">
+      <c r="B17" s="21" t="inlineStr">
         <is>
           <t>Test</t>
         </is>
       </c>
-      <c r="C17" s="7" t="inlineStr">
+      <c r="C17" s="21" t="inlineStr">
         <is>
           <t>Security Testing</t>
         </is>
       </c>
-      <c r="D17" s="7" t="inlineStr">
+      <c r="D17" s="21" t="inlineStr">
         <is>
           <t>Comprehensive security testing and vulnerability assessment</t>
         </is>
       </c>
-      <c r="E17" s="7" t="inlineStr">
+      <c r="E17" s="21" t="inlineStr">
         <is>
           <t>Security Tester</t>
         </is>
       </c>
-      <c r="F17" s="7" t="inlineStr">
+      <c r="F17" s="21" t="inlineStr">
         <is>
           <t>[START_DATE+60]</t>
         </is>
       </c>
-      <c r="G17" s="7" t="inlineStr">
+      <c r="G17" s="21" t="inlineStr">
         <is>
           <t>[START_DATE+67]</t>
         </is>
       </c>
-      <c r="H17" s="7" t="n">
+      <c r="H17" s="21" t="n">
         <v>7</v>
       </c>
-      <c r="I17" s="7" t="inlineStr">
+      <c r="I17" s="21" t="inlineStr">
         <is>
           <t>PRJ-012</t>
         </is>
       </c>
-      <c r="J17" s="7" t="inlineStr">
+      <c r="J17" s="21" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="K17" s="7" t="n">
+      <c r="K17" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="L17" s="7" t="inlineStr">
+      <c r="L17" s="21" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="M17" s="7" t="inlineStr">
+      <c r="M17" s="21" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="N17" s="7" t="inlineStr">
+      <c r="N17" s="21" t="inlineStr">
         <is>
           <t>Security implementation</t>
         </is>
       </c>
-      <c r="O17" s="7" t="inlineStr">
+      <c r="O17" s="21" t="inlineStr">
         <is>
           <t>Security test results and remediation plan</t>
         </is>
       </c>
-      <c r="P17" s="7" t="n">
+      <c r="P17" s="21" t="n">
         <v>56</v>
       </c>
-      <c r="Q17" s="7" t="inlineStr">
+      <c r="Q17" s="21" t="inlineStr">
         <is>
           <t>External security audit may be required</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="inlineStr">
+      <c r="A18" s="20" t="inlineStr">
         <is>
           <t>PRJ-017</t>
         </is>
       </c>
-      <c r="B18" s="6" t="inlineStr">
+      <c r="B18" s="20" t="inlineStr">
         <is>
           <t>Test</t>
         </is>
       </c>
-      <c r="C18" s="6" t="inlineStr">
+      <c r="C18" s="20" t="inlineStr">
         <is>
           <t>User Acceptance Testing</t>
         </is>
       </c>
-      <c r="D18" s="6" t="inlineStr">
+      <c r="D18" s="20" t="inlineStr">
         <is>
           <t>Business user testing and sign-off</t>
         </is>
       </c>
-      <c r="E18" s="6" t="inlineStr">
+      <c r="E18" s="20" t="inlineStr">
         <is>
           <t>Business Users</t>
         </is>
       </c>
-      <c r="F18" s="6" t="inlineStr">
+      <c r="F18" s="20" t="inlineStr">
         <is>
           <t>[START_DATE+70]</t>
         </is>
       </c>
-      <c r="G18" s="6" t="inlineStr">
+      <c r="G18" s="20" t="inlineStr">
         <is>
           <t>[START_DATE+80]</t>
         </is>
       </c>
-      <c r="H18" s="6" t="n">
+      <c r="H18" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="I18" s="6" t="inlineStr">
+      <c r="I18" s="20" t="inlineStr">
         <is>
           <t>PRJ-015</t>
         </is>
       </c>
-      <c r="J18" s="6" t="inlineStr">
+      <c r="J18" s="20" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="K18" s="6" t="n">
+      <c r="K18" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="L18" s="6" t="inlineStr">
+      <c r="L18" s="20" t="inlineStr">
         <is>
           <t>Critical</t>
         </is>
       </c>
-      <c r="M18" s="6" t="inlineStr">
+      <c r="M18" s="20" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="N18" s="6" t="inlineStr">
+      <c r="N18" s="20" t="inlineStr">
         <is>
           <t>System testing completion</t>
         </is>
       </c>
-      <c r="O18" s="6" t="inlineStr">
+      <c r="O18" s="20" t="inlineStr">
         <is>
           <t>UAT results and business sign-off</t>
         </is>
       </c>
-      <c r="P18" s="6" t="n">
+      <c r="P18" s="20" t="n">
         <v>40</v>
       </c>
-      <c r="Q18" s="6" t="inlineStr">
+      <c r="Q18" s="20" t="inlineStr">
         <is>
           <t>Include training for test users</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="inlineStr">
+      <c r="A19" s="21" t="inlineStr">
         <is>
           <t>PRJ-018</t>
         </is>
       </c>
-      <c r="B19" s="7" t="inlineStr">
+      <c r="B19" s="21" t="inlineStr">
         <is>
           <t>Deploy</t>
         </is>
       </c>
-      <c r="C19" s="7" t="inlineStr">
+      <c r="C19" s="21" t="inlineStr">
         <is>
           <t>Production Environment Setup</t>
         </is>
       </c>
-      <c r="D19" s="7" t="inlineStr">
+      <c r="D19" s="21" t="inlineStr">
         <is>
           <t>Provision and configure production infrastructure</t>
         </is>
       </c>
-      <c r="E19" s="7" t="inlineStr">
+      <c r="E19" s="21" t="inlineStr">
         <is>
           <t>Infrastructure Team</t>
         </is>
       </c>
-      <c r="F19" s="7" t="inlineStr">
+      <c r="F19" s="21" t="inlineStr">
         <is>
           <t>[START_DATE+75]</t>
         </is>
       </c>
-      <c r="G19" s="7" t="inlineStr">
+      <c r="G19" s="21" t="inlineStr">
         <is>
           <t>[START_DATE+82]</t>
         </is>
       </c>
-      <c r="H19" s="7" t="n">
+      <c r="H19" s="21" t="n">
         <v>7</v>
       </c>
-      <c r="I19" s="7" t="inlineStr">
+      <c r="I19" s="21" t="inlineStr">
         <is>
           <t>PRJ-009</t>
         </is>
       </c>
-      <c r="J19" s="7" t="inlineStr">
+      <c r="J19" s="21" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="K19" s="7" t="n">
+      <c r="K19" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="L19" s="7" t="inlineStr">
+      <c r="L19" s="21" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="M19" s="7" t="inlineStr">
+      <c r="M19" s="21" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="N19" s="7" t="inlineStr">
+      <c r="N19" s="21" t="inlineStr">
         <is>
           <t>Environment specifications</t>
         </is>
       </c>
-      <c r="O19" s="7" t="inlineStr">
+      <c r="O19" s="21" t="inlineStr">
         <is>
           <t>Production environment ready</t>
         </is>
       </c>
-      <c r="P19" s="7" t="n">
+      <c r="P19" s="21" t="n">
         <v>56</v>
       </c>
-      <c r="Q19" s="7" t="inlineStr">
+      <c r="Q19" s="21" t="inlineStr">
         <is>
           <t>Include monitoring and alerting setup</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="inlineStr">
+      <c r="A20" s="20" t="inlineStr">
         <is>
           <t>PRJ-019</t>
         </is>
       </c>
-      <c r="B20" s="6" t="inlineStr">
+      <c r="B20" s="20" t="inlineStr">
         <is>
           <t>Deploy</t>
         </is>
       </c>
-      <c r="C20" s="6" t="inlineStr">
+      <c r="C20" s="20" t="inlineStr">
         <is>
           <t>Pre-Deployment Testing</t>
         </is>
       </c>
-      <c r="D20" s="6" t="inlineStr">
+      <c r="D20" s="20" t="inlineStr">
         <is>
           <t>Final testing in production-like environment</t>
         </is>
       </c>
-      <c r="E20" s="6" t="inlineStr">
+      <c r="E20" s="20" t="inlineStr">
         <is>
           <t>QA Lead</t>
         </is>
       </c>
-      <c r="F20" s="6" t="inlineStr">
+      <c r="F20" s="20" t="inlineStr">
         <is>
           <t>[START_DATE+80]</t>
         </is>
       </c>
-      <c r="G20" s="6" t="inlineStr">
+      <c r="G20" s="20" t="inlineStr">
         <is>
           <t>[START_DATE+85]</t>
         </is>
       </c>
-      <c r="H20" s="6" t="n">
+      <c r="H20" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="I20" s="6" t="inlineStr">
+      <c r="I20" s="20" t="inlineStr">
         <is>
           <t>PRJ-017</t>
         </is>
       </c>
-      <c r="J20" s="6" t="inlineStr">
+      <c r="J20" s="20" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="K20" s="6" t="n">
+      <c r="K20" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="L20" s="6" t="inlineStr">
+      <c r="L20" s="20" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="M20" s="6" t="inlineStr">
+      <c r="M20" s="20" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="N20" s="6" t="inlineStr">
+      <c r="N20" s="20" t="inlineStr">
         <is>
           <t>UAT completion</t>
         </is>
       </c>
-      <c r="O20" s="6" t="inlineStr">
+      <c r="O20" s="20" t="inlineStr">
         <is>
           <t>Pre-deployment test results</t>
         </is>
       </c>
-      <c r="P20" s="6" t="n">
+      <c r="P20" s="20" t="n">
         <v>40</v>
       </c>
-      <c r="Q20" s="6" t="inlineStr">
+      <c r="Q20" s="20" t="inlineStr">
         <is>
           <t>Smoke testing and final validation</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="inlineStr">
+      <c r="A21" s="21" t="inlineStr">
         <is>
           <t>PRJ-020</t>
         </is>
       </c>
-      <c r="B21" s="7" t="inlineStr">
+      <c r="B21" s="21" t="inlineStr">
         <is>
           <t>Deploy</t>
         </is>
       </c>
-      <c r="C21" s="7" t="inlineStr">
+      <c r="C21" s="21" t="inlineStr">
         <is>
           <t>Production Deployment</t>
         </is>
       </c>
-      <c r="D21" s="7" t="inlineStr">
+      <c r="D21" s="21" t="inlineStr">
         <is>
           <t>Deploy solution to production environment</t>
         </is>
       </c>
-      <c r="E21" s="7" t="inlineStr">
+      <c r="E21" s="21" t="inlineStr">
         <is>
           <t>Deployment Team</t>
         </is>
       </c>
-      <c r="F21" s="7" t="inlineStr">
+      <c r="F21" s="21" t="inlineStr">
         <is>
           <t>[START_DATE+85]</t>
         </is>
       </c>
-      <c r="G21" s="7" t="inlineStr">
+      <c r="G21" s="21" t="inlineStr">
         <is>
           <t>[START_DATE+87]</t>
         </is>
       </c>
-      <c r="H21" s="7" t="n">
+      <c r="H21" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="I21" s="7" t="inlineStr">
+      <c r="I21" s="21" t="inlineStr">
         <is>
           <t>PRJ-018</t>
         </is>
       </c>
-      <c r="J21" s="7" t="inlineStr">
+      <c r="J21" s="21" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="K21" s="7" t="n">
+      <c r="K21" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="L21" s="7" t="inlineStr">
+      <c r="L21" s="21" t="inlineStr">
         <is>
           <t>Critical</t>
         </is>
       </c>
-      <c r="M21" s="7" t="inlineStr">
+      <c r="M21" s="21" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="N21" s="7" t="inlineStr">
+      <c r="N21" s="21" t="inlineStr">
         <is>
           <t>Production environment ready</t>
         </is>
       </c>
-      <c r="O21" s="7" t="inlineStr">
+      <c r="O21" s="21" t="inlineStr">
         <is>
           <t>Deployed production system</t>
         </is>
       </c>
-      <c r="P21" s="7" t="n">
+      <c r="P21" s="21" t="n">
         <v>16</v>
       </c>
-      <c r="Q21" s="7" t="inlineStr">
+      <c r="Q21" s="21" t="inlineStr">
         <is>
           <t>Follow change management procedures</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="inlineStr">
+      <c r="A22" s="20" t="inlineStr">
         <is>
           <t>PRJ-021</t>
         </is>
       </c>
-      <c r="B22" s="6" t="inlineStr">
+      <c r="B22" s="20" t="inlineStr">
         <is>
           <t>Deploy</t>
         </is>
       </c>
-      <c r="C22" s="6" t="inlineStr">
+      <c r="C22" s="20" t="inlineStr">
         <is>
           <t>Post-Deployment Validation</t>
         </is>
       </c>
-      <c r="D22" s="6" t="inlineStr">
+      <c r="D22" s="20" t="inlineStr">
         <is>
           <t>Validate production deployment and functionality</t>
         </is>
       </c>
-      <c r="E22" s="6" t="inlineStr">
+      <c r="E22" s="20" t="inlineStr">
         <is>
           <t>Operations Team</t>
         </is>
       </c>
-      <c r="F22" s="6" t="inlineStr">
+      <c r="F22" s="20" t="inlineStr">
         <is>
           <t>[START_DATE+87]</t>
         </is>
       </c>
-      <c r="G22" s="6" t="inlineStr">
+      <c r="G22" s="20" t="inlineStr">
         <is>
           <t>[START_DATE+89]</t>
         </is>
       </c>
-      <c r="H22" s="6" t="n">
+      <c r="H22" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="I22" s="6" t="inlineStr">
+      <c r="I22" s="20" t="inlineStr">
         <is>
           <t>PRJ-020</t>
         </is>
       </c>
-      <c r="J22" s="6" t="inlineStr">
+      <c r="J22" s="20" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="K22" s="6" t="n">
+      <c r="K22" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="L22" s="6" t="inlineStr">
+      <c r="L22" s="20" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="M22" s="6" t="inlineStr">
+      <c r="M22" s="20" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="N22" s="6" t="inlineStr">
+      <c r="N22" s="20" t="inlineStr">
         <is>
           <t>Production deployment</t>
         </is>
       </c>
-      <c r="O22" s="6" t="inlineStr">
+      <c r="O22" s="20" t="inlineStr">
         <is>
           <t>Production validation report</t>
         </is>
       </c>
-      <c r="P22" s="6" t="n">
+      <c r="P22" s="20" t="n">
         <v>16</v>
       </c>
-      <c r="Q22" s="6" t="inlineStr">
+      <c r="Q22" s="20" t="inlineStr">
         <is>
           <t>Include performance monitoring validation</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="inlineStr">
+      <c r="A23" s="21" t="inlineStr">
         <is>
           <t>PRJ-022</t>
         </is>
       </c>
-      <c r="B23" s="7" t="inlineStr">
+      <c r="B23" s="21" t="inlineStr">
         <is>
           <t>Deploy</t>
         </is>
       </c>
-      <c r="C23" s="7" t="inlineStr">
+      <c r="C23" s="21" t="inlineStr">
         <is>
           <t>User Training Delivery</t>
         </is>
       </c>
-      <c r="D23" s="7" t="inlineStr">
+      <c r="D23" s="21" t="inlineStr">
         <is>
           <t>Deliver training to end users and administrators</t>
         </is>
       </c>
-      <c r="E23" s="7" t="inlineStr">
+      <c r="E23" s="21" t="inlineStr">
         <is>
           <t>Training Team</t>
         </is>
       </c>
-      <c r="F23" s="7" t="inlineStr">
+      <c r="F23" s="21" t="inlineStr">
         <is>
           <t>[START_DATE+75]</t>
         </is>
       </c>
-      <c r="G23" s="7" t="inlineStr">
+      <c r="G23" s="21" t="inlineStr">
         <is>
           <t>[START_DATE+90]</t>
         </is>
       </c>
-      <c r="H23" s="7" t="n">
+      <c r="H23" s="21" t="n">
         <v>15</v>
       </c>
-      <c r="I23" s="7" t="inlineStr">
+      <c r="I23" s="21" t="inlineStr">
         <is>
           <t>PRJ-017</t>
         </is>
       </c>
-      <c r="J23" s="7" t="inlineStr">
+      <c r="J23" s="21" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="K23" s="7" t="n">
+      <c r="K23" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="L23" s="7" t="inlineStr">
+      <c r="L23" s="21" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="M23" s="7" t="inlineStr">
+      <c r="M23" s="21" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="N23" s="7" t="inlineStr">
+      <c r="N23" s="21" t="inlineStr">
         <is>
           <t>UAT completion</t>
         </is>
       </c>
-      <c r="O23" s="7" t="inlineStr">
+      <c r="O23" s="21" t="inlineStr">
         <is>
           <t>Training completion certificates</t>
         </is>
       </c>
-      <c r="P23" s="7" t="n">
+      <c r="P23" s="21" t="n">
         <v>60</v>
       </c>
-      <c r="Q23" s="7" t="inlineStr">
+      <c r="Q23" s="21" t="inlineStr">
         <is>
           <t>Include hands-on practical sessions</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="inlineStr">
+      <c r="A24" s="20" t="inlineStr">
         <is>
           <t>PRJ-023</t>
         </is>
       </c>
-      <c r="B24" s="6" t="inlineStr">
+      <c r="B24" s="20" t="inlineStr">
         <is>
           <t>Deploy</t>
         </is>
       </c>
-      <c r="C24" s="6" t="inlineStr">
+      <c r="C24" s="20" t="inlineStr">
         <is>
           <t>Go-Live Support</t>
         </is>
       </c>
-      <c r="D24" s="6" t="inlineStr">
+      <c r="D24" s="20" t="inlineStr">
         <is>
           <t>Provide intensive support during initial production use</t>
         </is>
       </c>
-      <c r="E24" s="6" t="inlineStr">
+      <c r="E24" s="20" t="inlineStr">
         <is>
           <t>Support Team</t>
         </is>
       </c>
-      <c r="F24" s="6" t="inlineStr">
+      <c r="F24" s="20" t="inlineStr">
         <is>
           <t>[START_DATE+89]</t>
         </is>
       </c>
-      <c r="G24" s="6" t="inlineStr">
+      <c r="G24" s="20" t="inlineStr">
         <is>
           <t>[START_DATE+96]</t>
         </is>
       </c>
-      <c r="H24" s="6" t="n">
+      <c r="H24" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="I24" s="6" t="inlineStr">
+      <c r="I24" s="20" t="inlineStr">
         <is>
           <t>PRJ-021</t>
         </is>
       </c>
-      <c r="J24" s="6" t="inlineStr">
+      <c r="J24" s="20" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="K24" s="6" t="n">
+      <c r="K24" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="L24" s="6" t="inlineStr">
+      <c r="L24" s="20" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="M24" s="6" t="inlineStr">
+      <c r="M24" s="20" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="N24" s="6" t="inlineStr">
+      <c r="N24" s="20" t="inlineStr">
         <is>
           <t>Production validation</t>
         </is>
       </c>
-      <c r="O24" s="6" t="inlineStr">
+      <c r="O24" s="20" t="inlineStr">
         <is>
           <t>Go-live support reports</t>
         </is>
       </c>
-      <c r="P24" s="6" t="n">
+      <c r="P24" s="20" t="n">
         <v>56</v>
       </c>
-      <c r="Q24" s="6" t="inlineStr">
+      <c r="Q24" s="20" t="inlineStr">
         <is>
           <t>24/7 support for first week</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="7" t="inlineStr">
+      <c r="A25" s="21" t="inlineStr">
         <is>
           <t>PRJ-024</t>
         </is>
       </c>
-      <c r="B25" s="7" t="inlineStr">
+      <c r="B25" s="21" t="inlineStr">
         <is>
           <t>Closure</t>
         </is>
       </c>
-      <c r="C25" s="7" t="inlineStr">
+      <c r="C25" s="21" t="inlineStr">
         <is>
           <t>Hypercare Period</t>
         </is>
       </c>
-      <c r="D25" s="7" t="inlineStr">
+      <c r="D25" s="21" t="inlineStr">
         <is>
           <t>Extended support and monitoring during stabilization</t>
         </is>
       </c>
-      <c r="E25" s="7" t="inlineStr">
+      <c r="E25" s="21" t="inlineStr">
         <is>
           <t>Support Team</t>
         </is>
       </c>
-      <c r="F25" s="7" t="inlineStr">
+      <c r="F25" s="21" t="inlineStr">
         <is>
           <t>[START_DATE+96]</t>
         </is>
       </c>
-      <c r="G25" s="7" t="inlineStr">
+      <c r="G25" s="21" t="inlineStr">
         <is>
           <t>[START_DATE+126]</t>
         </is>
       </c>
-      <c r="H25" s="7" t="n">
+      <c r="H25" s="21" t="n">
         <v>30</v>
       </c>
-      <c r="I25" s="7" t="inlineStr">
+      <c r="I25" s="21" t="inlineStr">
         <is>
           <t>PRJ-023</t>
         </is>
       </c>
-      <c r="J25" s="7" t="inlineStr">
+      <c r="J25" s="21" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="K25" s="7" t="n">
+      <c r="K25" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="L25" s="7" t="inlineStr">
+      <c r="L25" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="M25" s="7" t="inlineStr">
+      <c r="M25" s="21" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="N25" s="7" t="inlineStr">
+      <c r="N25" s="21" t="inlineStr">
         <is>
           <t>Go-live completion</t>
         </is>
       </c>
-      <c r="O25" s="7" t="inlineStr">
+      <c r="O25" s="21" t="inlineStr">
         <is>
           <t>Hypercare completion report</t>
         </is>
       </c>
-      <c r="P25" s="7" t="n">
+      <c r="P25" s="21" t="n">
         <v>120</v>
       </c>
-      <c r="Q25" s="7" t="inlineStr">
+      <c r="Q25" s="21" t="inlineStr">
         <is>
           <t>Monitor system stability and user adoption</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="inlineStr">
+      <c r="A26" s="20" t="inlineStr">
         <is>
           <t>PRJ-025</t>
         </is>
       </c>
-      <c r="B26" s="6" t="inlineStr">
+      <c r="B26" s="20" t="inlineStr">
         <is>
           <t>Closure</t>
         </is>
       </c>
-      <c r="C26" s="6" t="inlineStr">
+      <c r="C26" s="20" t="inlineStr">
         <is>
           <t>Project Documentation</t>
         </is>
       </c>
-      <c r="D26" s="6" t="inlineStr">
+      <c r="D26" s="20" t="inlineStr">
         <is>
           <t>Finalize all project documentation and handover</t>
         </is>
       </c>
-      <c r="E26" s="6" t="inlineStr">
+      <c r="E26" s="20" t="inlineStr">
         <is>
           <t>Project Manager</t>
         </is>
       </c>
-      <c r="F26" s="6" t="inlineStr">
+      <c r="F26" s="20" t="inlineStr">
         <is>
           <t>[START_DATE+90]</t>
         </is>
       </c>
-      <c r="G26" s="6" t="inlineStr">
+      <c r="G26" s="20" t="inlineStr">
         <is>
           <t>[START_DATE+100]</t>
         </is>
       </c>
-      <c r="H26" s="6" t="n">
+      <c r="H26" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="I26" s="6" t="inlineStr">
+      <c r="I26" s="20" t="inlineStr">
         <is>
           <t>PRJ-022</t>
         </is>
       </c>
-      <c r="J26" s="6" t="inlineStr">
+      <c r="J26" s="20" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="K26" s="6" t="n">
+      <c r="K26" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="L26" s="6" t="inlineStr">
+      <c r="L26" s="20" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="M26" s="6" t="inlineStr">
+      <c r="M26" s="20" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="N26" s="6" t="inlineStr">
+      <c r="N26" s="20" t="inlineStr">
         <is>
           <t>All deliverables complete</t>
         </is>
       </c>
-      <c r="O26" s="6" t="inlineStr">
+      <c r="O26" s="20" t="inlineStr">
         <is>
           <t>Complete project documentation package</t>
         </is>
       </c>
-      <c r="P26" s="6" t="n">
+      <c r="P26" s="20" t="n">
         <v>40</v>
       </c>
-      <c r="Q26" s="6" t="inlineStr">
+      <c r="Q26" s="20" t="inlineStr">
         <is>
           <t>Include lessons learned and recommendations</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7" t="inlineStr">
+      <c r="A27" s="21" t="inlineStr">
         <is>
           <t>PRJ-026</t>
         </is>
       </c>
-      <c r="B27" s="7" t="inlineStr">
+      <c r="B27" s="21" t="inlineStr">
         <is>
           <t>Closure</t>
         </is>
       </c>
-      <c r="C27" s="7" t="inlineStr">
+      <c r="C27" s="21" t="inlineStr">
         <is>
           <t>Project Closure</t>
         </is>
       </c>
-      <c r="D27" s="7" t="inlineStr">
+      <c r="D27" s="21" t="inlineStr">
         <is>
           <t>Formal project closure and team release</t>
         </is>
       </c>
-      <c r="E27" s="7" t="inlineStr">
+      <c r="E27" s="21" t="inlineStr">
         <is>
           <t>Project Manager</t>
         </is>
       </c>
-      <c r="F27" s="7" t="inlineStr">
+      <c r="F27" s="21" t="inlineStr">
         <is>
           <t>[START_DATE+126]</t>
         </is>
       </c>
-      <c r="G27" s="7" t="inlineStr">
+      <c r="G27" s="21" t="inlineStr">
         <is>
           <t>[START_DATE+128]</t>
         </is>
       </c>
-      <c r="H27" s="7" t="n">
+      <c r="H27" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="I27" s="7" t="inlineStr">
+      <c r="I27" s="21" t="inlineStr">
         <is>
           <t>PRJ-024</t>
         </is>
       </c>
-      <c r="J27" s="7" t="inlineStr">
+      <c r="J27" s="21" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
-      <c r="K27" s="7" t="n">
+      <c r="K27" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="L27" s="7" t="inlineStr">
+      <c r="L27" s="21" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="M27" s="7" t="inlineStr">
+      <c r="M27" s="21" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="N27" s="7" t="inlineStr">
+      <c r="N27" s="21" t="inlineStr">
         <is>
           <t>Hypercare completion</t>
         </is>
       </c>
-      <c r="O27" s="7" t="inlineStr">
+      <c r="O27" s="21" t="inlineStr">
         <is>
           <t>Project closure report and sign-off</t>
         </is>
       </c>
-      <c r="P27" s="7" t="n">
+      <c r="P27" s="21" t="n">
         <v>8</v>
       </c>
-      <c r="Q27" s="7" t="inlineStr">
+      <c r="Q27" s="21" t="inlineStr">
         <is>
           <t>Celebrate project success with team</t>
         </is>
@@ -2841,6 +2990,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Q27"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" fitToHeight="0" fitToWidth="1"/>
 </worksheet>
 </file>
--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/project-plan.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/project-plan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cover" sheetId="1" state="visible" r:id="rId1"/>
@@ -27,7 +27,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -53,12 +53,6 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <color rgb="FF5D6D7E"/>
-      <sz val="11"/>
-      <u val="single"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
       <b val="1"/>
       <color rgb="FFCC0000"/>
       <sz val="12"/>
@@ -77,13 +71,6 @@
       <b val="1"/>
       <color theme="1"/>
       <sz val="12"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FF5D6D7E"/>
-      <sz val="14"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -123,6 +110,13 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF5D6D7E"/>
+      <sz val="12"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <b val="1"/>
       <color rgb="FF2C3E50"/>
       <sz val="12"/>
@@ -153,6 +147,27 @@
       <name val="Calibri"/>
       <b val="1"/>
       <color rgb="00006100"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="001F4E79"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="00375623"/>
       <sz val="12"/>
     </font>
   </fonts>
@@ -314,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -326,9 +341,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -348,79 +360,79 @@
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="9" fontId="9" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -429,7 +441,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -438,17 +450,33 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,11 +496,13 @@
       <row>11</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="1238250" cy="314325"/>
+    <ext cx="1708214" cy="365379"/>
     <pic>
       <nvPicPr>
         <cNvPr id="2" name="Image 1" descr="Picture"/>
-        <cNvPicPr/>
+        <cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cNvPicPr>
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
@@ -481,6 +511,10 @@
         </a:stretch>
       </blipFill>
       <spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="209550" y="2032000"/>
+          <a:ext cx="1708214" cy="365379"/>
+        </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
@@ -785,15 +819,15 @@
   </sheetPr>
   <dimension ref="B1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
     <col width="3" customWidth="1" min="1" max="1"/>
     <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="32.81640625" customWidth="1" min="3" max="3"/>
     <col width="3" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -803,95 +837,89 @@
     </row>
     <row r="2" ht="15" customHeight="1"/>
     <row r="3" ht="40" customHeight="1">
-      <c r="B3" s="16" t="inlineStr">
-        <is>
-          <t>[DOCUMENT TITLE]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="25" customHeight="1">
-      <c r="B4" s="15" t="inlineStr">
+      <c r="B3" s="33" t="inlineStr">
         <is>
           <t>Project Plan</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="30" customHeight="1">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Delivery Document</t>
+    <row r="4" ht="18" customHeight="1"/>
+    <row r="5" ht="18" customHeight="1">
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Generated:</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>November 27, 2025</t>
         </is>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Generated:</t>
+          <t>Solution:</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>November 16, 2025</t>
+          <t>Sample Solution</t>
         </is>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Solution:</t>
+          <t>Customer:</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>November 26, 2025</t>
+          <t>[Customer Name]</t>
         </is>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1">
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Customer:</t>
+          <t>Version:</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>Sample Solution</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1">
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Version:</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>[Customer Name]</t>
+          <t>Status:</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Draft</t>
         </is>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1">
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>Status:</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="40" customHeight="1"/>
+      <c r="B10" s="2" t="n"/>
+      <c r="C10" s="4" t="n"/>
+    </row>
+    <row r="11" ht="18" customHeight="1"/>
     <row r="12" ht="30" customHeight="1">
-      <c r="C12" s="5" t="inlineStr">
+      <c r="C12" s="32" t="inlineStr">
         <is>
           <t>eoframework.org</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
@@ -923,1057 +951,1057 @@
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1">
-      <c r="A1" s="35" t="inlineStr">
+      <c r="A1" s="34" t="inlineStr">
         <is>
           <t>Project Timeline</t>
         </is>
       </c>
     </row>
     <row r="2" ht="32" customHeight="1">
-      <c r="A2" s="36" t="inlineStr">
+      <c r="A2" s="35" t="inlineStr">
         <is>
           <t>Phase</t>
         </is>
       </c>
-      <c r="B2" s="36" t="inlineStr">
+      <c r="B2" s="35" t="inlineStr">
         <is>
           <t>Task</t>
         </is>
       </c>
-      <c r="C2" s="36" t="inlineStr">
+      <c r="C2" s="35" t="inlineStr">
         <is>
           <t>Duration</t>
         </is>
       </c>
-      <c r="D2" s="36" t="inlineStr">
+      <c r="D2" s="35" t="inlineStr">
         <is>
           <t>Start Date</t>
         </is>
       </c>
-      <c r="E2" s="36" t="inlineStr">
+      <c r="E2" s="35" t="inlineStr">
         <is>
           <t>End Date</t>
         </is>
       </c>
-      <c r="F2" s="36" t="inlineStr">
+      <c r="F2" s="35" t="inlineStr">
         <is>
           <t>Dependencies</t>
         </is>
       </c>
-      <c r="G2" s="36" t="inlineStr">
+      <c r="G2" s="35" t="inlineStr">
         <is>
           <t>Owner</t>
         </is>
       </c>
-      <c r="H2" s="36" t="inlineStr">
+      <c r="H2" s="35" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
     </row>
     <row r="3" ht="26" customHeight="1">
-      <c r="A3" s="37" t="inlineStr">
+      <c r="A3" s="36" t="inlineStr">
         <is>
           <t>Planning</t>
         </is>
       </c>
-      <c r="B3" s="38" t="inlineStr">
+      <c r="B3" s="37" t="inlineStr">
         <is>
           <t>Project Kickoff</t>
         </is>
       </c>
-      <c r="C3" s="39" t="inlineStr">
+      <c r="C3" s="38" t="inlineStr">
         <is>
           <t>1 day</t>
         </is>
       </c>
-      <c r="D3" s="39" t="inlineStr">
+      <c r="D3" s="38" t="inlineStr">
         <is>
           <t>[START_DATE]</t>
         </is>
       </c>
-      <c r="E3" s="39" t="inlineStr">
+      <c r="E3" s="38" t="inlineStr">
         <is>
           <t>[START_DATE+1]</t>
         </is>
       </c>
-      <c r="F3" s="38" t="inlineStr">
+      <c r="F3" s="37" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="G3" s="38" t="inlineStr">
+      <c r="G3" s="37" t="inlineStr">
         <is>
           <t>Project Manager</t>
         </is>
       </c>
-      <c r="H3" s="39" t="inlineStr">
+      <c r="H3" s="38" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="4" ht="26" customHeight="1">
-      <c r="A4" s="40" t="inlineStr">
+      <c r="A4" s="39" t="inlineStr">
         <is>
           <t>Planning</t>
         </is>
       </c>
-      <c r="B4" s="41" t="inlineStr">
+      <c r="B4" s="40" t="inlineStr">
         <is>
           <t>Requirements Gathering</t>
         </is>
       </c>
-      <c r="C4" s="42" t="inlineStr">
+      <c r="C4" s="41" t="inlineStr">
         <is>
           <t>4 days</t>
         </is>
       </c>
-      <c r="D4" s="42" t="inlineStr">
+      <c r="D4" s="41" t="inlineStr">
         <is>
           <t>[START_DATE+1]</t>
         </is>
       </c>
-      <c r="E4" s="42" t="inlineStr">
+      <c r="E4" s="41" t="inlineStr">
         <is>
           <t>[START_DATE+5]</t>
         </is>
       </c>
-      <c r="F4" s="41" t="inlineStr">
+      <c r="F4" s="40" t="inlineStr">
         <is>
           <t>Project Kickoff</t>
         </is>
       </c>
-      <c r="G4" s="41" t="inlineStr">
+      <c r="G4" s="40" t="inlineStr">
         <is>
           <t>Business Analyst</t>
         </is>
       </c>
-      <c r="H4" s="42" t="inlineStr">
+      <c r="H4" s="41" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="5" ht="26" customHeight="1">
-      <c r="A5" s="37" t="inlineStr">
+      <c r="A5" s="36" t="inlineStr">
         <is>
           <t>Planning</t>
         </is>
       </c>
-      <c r="B5" s="38" t="inlineStr">
+      <c r="B5" s="37" t="inlineStr">
         <is>
           <t>Solution Architecture Design</t>
         </is>
       </c>
-      <c r="C5" s="39" t="inlineStr">
+      <c r="C5" s="38" t="inlineStr">
         <is>
           <t>7 days</t>
         </is>
       </c>
-      <c r="D5" s="39" t="inlineStr">
+      <c r="D5" s="38" t="inlineStr">
         <is>
           <t>[START_DATE+3]</t>
         </is>
       </c>
-      <c r="E5" s="39" t="inlineStr">
+      <c r="E5" s="38" t="inlineStr">
         <is>
           <t>[START_DATE+10]</t>
         </is>
       </c>
-      <c r="F5" s="38" t="inlineStr">
+      <c r="F5" s="37" t="inlineStr">
         <is>
           <t>Requirements Gathering</t>
         </is>
       </c>
-      <c r="G5" s="38" t="inlineStr">
+      <c r="G5" s="37" t="inlineStr">
         <is>
           <t>Solution Architect</t>
         </is>
       </c>
-      <c r="H5" s="39" t="inlineStr">
+      <c r="H5" s="38" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="6" ht="26" customHeight="1">
-      <c r="A6" s="40" t="inlineStr">
+      <c r="A6" s="39" t="inlineStr">
         <is>
           <t>Planning</t>
         </is>
       </c>
-      <c r="B6" s="41" t="inlineStr">
+      <c r="B6" s="40" t="inlineStr">
         <is>
           <t>Infrastructure Planning</t>
         </is>
       </c>
-      <c r="C6" s="42" t="inlineStr">
+      <c r="C6" s="41" t="inlineStr">
         <is>
           <t>7 days</t>
         </is>
       </c>
-      <c r="D6" s="42" t="inlineStr">
+      <c r="D6" s="41" t="inlineStr">
         <is>
           <t>[START_DATE+8]</t>
         </is>
       </c>
-      <c r="E6" s="42" t="inlineStr">
+      <c r="E6" s="41" t="inlineStr">
         <is>
           <t>[START_DATE+15]</t>
         </is>
       </c>
-      <c r="F6" s="41" t="inlineStr">
+      <c r="F6" s="40" t="inlineStr">
         <is>
           <t>Architecture Design</t>
         </is>
       </c>
-      <c r="G6" s="41" t="inlineStr">
+      <c r="G6" s="40" t="inlineStr">
         <is>
           <t>Infrastructure Architect</t>
         </is>
       </c>
-      <c r="H6" s="42" t="inlineStr">
+      <c r="H6" s="41" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="7" ht="26" customHeight="1">
-      <c r="A7" s="37" t="inlineStr">
+      <c r="A7" s="36" t="inlineStr">
         <is>
           <t>Design</t>
         </is>
       </c>
-      <c r="B7" s="38" t="inlineStr">
+      <c r="B7" s="37" t="inlineStr">
         <is>
           <t>Detailed Design</t>
         </is>
       </c>
-      <c r="C7" s="39" t="inlineStr">
+      <c r="C7" s="38" t="inlineStr">
         <is>
           <t>10 days</t>
         </is>
       </c>
-      <c r="D7" s="39" t="inlineStr">
+      <c r="D7" s="38" t="inlineStr">
         <is>
           <t>[START_DATE+15]</t>
         </is>
       </c>
-      <c r="E7" s="39" t="inlineStr">
+      <c r="E7" s="38" t="inlineStr">
         <is>
           <t>[START_DATE+25]</t>
         </is>
       </c>
-      <c r="F7" s="38" t="inlineStr">
+      <c r="F7" s="37" t="inlineStr">
         <is>
           <t>Infrastructure Planning</t>
         </is>
       </c>
-      <c r="G7" s="38" t="inlineStr">
+      <c r="G7" s="37" t="inlineStr">
         <is>
           <t>Technical Lead</t>
         </is>
       </c>
-      <c r="H7" s="39" t="inlineStr">
+      <c r="H7" s="38" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="8" ht="26" customHeight="1">
-      <c r="A8" s="40" t="inlineStr">
+      <c r="A8" s="39" t="inlineStr">
         <is>
           <t>Design</t>
         </is>
       </c>
-      <c r="B8" s="41" t="inlineStr">
+      <c r="B8" s="40" t="inlineStr">
         <is>
           <t>Security Design</t>
         </is>
       </c>
-      <c r="C8" s="42" t="inlineStr">
+      <c r="C8" s="41" t="inlineStr">
         <is>
           <t>5 days</t>
         </is>
       </c>
-      <c r="D8" s="42" t="inlineStr">
+      <c r="D8" s="41" t="inlineStr">
         <is>
           <t>[START_DATE+18]</t>
         </is>
       </c>
-      <c r="E8" s="42" t="inlineStr">
+      <c r="E8" s="41" t="inlineStr">
         <is>
           <t>[START_DATE+23]</t>
         </is>
       </c>
-      <c r="F8" s="41" t="inlineStr">
+      <c r="F8" s="40" t="inlineStr">
         <is>
           <t>Architecture Design</t>
         </is>
       </c>
-      <c r="G8" s="41" t="inlineStr">
+      <c r="G8" s="40" t="inlineStr">
         <is>
           <t>Security Architect</t>
         </is>
       </c>
-      <c r="H8" s="42" t="inlineStr">
+      <c r="H8" s="41" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="9" ht="26" customHeight="1">
-      <c r="A9" s="37" t="inlineStr">
+      <c r="A9" s="36" t="inlineStr">
         <is>
           <t>Design</t>
         </is>
       </c>
-      <c r="B9" s="38" t="inlineStr">
+      <c r="B9" s="37" t="inlineStr">
         <is>
           <t>Integration Design</t>
         </is>
       </c>
-      <c r="C9" s="39" t="inlineStr">
+      <c r="C9" s="38" t="inlineStr">
         <is>
           <t>7 days</t>
         </is>
       </c>
-      <c r="D9" s="39" t="inlineStr">
+      <c r="D9" s="38" t="inlineStr">
         <is>
           <t>[START_DATE+20]</t>
         </is>
       </c>
-      <c r="E9" s="39" t="inlineStr">
+      <c r="E9" s="38" t="inlineStr">
         <is>
           <t>[START_DATE+27]</t>
         </is>
       </c>
-      <c r="F9" s="38" t="inlineStr">
+      <c r="F9" s="37" t="inlineStr">
         <is>
           <t>Detailed Design</t>
         </is>
       </c>
-      <c r="G9" s="38" t="inlineStr">
+      <c r="G9" s="37" t="inlineStr">
         <is>
           <t>Integration Specialist</t>
         </is>
       </c>
-      <c r="H9" s="39" t="inlineStr">
+      <c r="H9" s="38" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="10" ht="26" customHeight="1">
-      <c r="A10" s="40" t="inlineStr">
+      <c r="A10" s="39" t="inlineStr">
         <is>
           <t>Build</t>
         </is>
       </c>
-      <c r="B10" s="41" t="inlineStr">
+      <c r="B10" s="40" t="inlineStr">
         <is>
           <t>Environment Setup</t>
         </is>
       </c>
-      <c r="C10" s="42" t="inlineStr">
+      <c r="C10" s="41" t="inlineStr">
         <is>
           <t>7 days</t>
         </is>
       </c>
-      <c r="D10" s="42" t="inlineStr">
+      <c r="D10" s="41" t="inlineStr">
         <is>
           <t>[START_DATE+25]</t>
         </is>
       </c>
-      <c r="E10" s="42" t="inlineStr">
+      <c r="E10" s="41" t="inlineStr">
         <is>
           <t>[START_DATE+32]</t>
         </is>
       </c>
-      <c r="F10" s="41" t="inlineStr">
+      <c r="F10" s="40" t="inlineStr">
         <is>
           <t>Infrastructure Planning</t>
         </is>
       </c>
-      <c r="G10" s="41" t="inlineStr">
+      <c r="G10" s="40" t="inlineStr">
         <is>
           <t>DevOps Engineer</t>
         </is>
       </c>
-      <c r="H10" s="42" t="inlineStr">
+      <c r="H10" s="41" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="11" ht="26" customHeight="1">
-      <c r="A11" s="37" t="inlineStr">
+      <c r="A11" s="36" t="inlineStr">
         <is>
           <t>Build</t>
         </is>
       </c>
-      <c r="B11" s="38" t="inlineStr">
+      <c r="B11" s="37" t="inlineStr">
         <is>
           <t>Core Development</t>
         </is>
       </c>
-      <c r="C11" s="39" t="inlineStr">
+      <c r="C11" s="38" t="inlineStr">
         <is>
           <t>20 days</t>
         </is>
       </c>
-      <c r="D11" s="39" t="inlineStr">
+      <c r="D11" s="38" t="inlineStr">
         <is>
           <t>[START_DATE+30]</t>
         </is>
       </c>
-      <c r="E11" s="39" t="inlineStr">
+      <c r="E11" s="38" t="inlineStr">
         <is>
           <t>[START_DATE+50]</t>
         </is>
       </c>
-      <c r="F11" s="38" t="inlineStr">
+      <c r="F11" s="37" t="inlineStr">
         <is>
           <t>Detailed Design</t>
         </is>
       </c>
-      <c r="G11" s="38" t="inlineStr">
+      <c r="G11" s="37" t="inlineStr">
         <is>
           <t>Development Team</t>
         </is>
       </c>
-      <c r="H11" s="39" t="inlineStr">
+      <c r="H11" s="38" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="12" ht="26" customHeight="1">
-      <c r="A12" s="40" t="inlineStr">
+      <c r="A12" s="39" t="inlineStr">
         <is>
           <t>Build</t>
         </is>
       </c>
-      <c r="B12" s="41" t="inlineStr">
+      <c r="B12" s="40" t="inlineStr">
         <is>
           <t>Integration Development</t>
         </is>
       </c>
-      <c r="C12" s="42" t="inlineStr">
+      <c r="C12" s="41" t="inlineStr">
         <is>
           <t>12 days</t>
         </is>
       </c>
-      <c r="D12" s="42" t="inlineStr">
+      <c r="D12" s="41" t="inlineStr">
         <is>
           <t>[START_DATE+35]</t>
         </is>
       </c>
-      <c r="E12" s="42" t="inlineStr">
+      <c r="E12" s="41" t="inlineStr">
         <is>
           <t>[START_DATE+47]</t>
         </is>
       </c>
-      <c r="F12" s="41" t="inlineStr">
+      <c r="F12" s="40" t="inlineStr">
         <is>
           <t>Integration Design</t>
         </is>
       </c>
-      <c r="G12" s="41" t="inlineStr">
+      <c r="G12" s="40" t="inlineStr">
         <is>
           <t>Integration Developer</t>
         </is>
       </c>
-      <c r="H12" s="42" t="inlineStr">
+      <c r="H12" s="41" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="13" ht="26" customHeight="1">
-      <c r="A13" s="37" t="inlineStr">
+      <c r="A13" s="36" t="inlineStr">
         <is>
           <t>Build</t>
         </is>
       </c>
-      <c r="B13" s="38" t="inlineStr">
+      <c r="B13" s="37" t="inlineStr">
         <is>
           <t>Security Implementation</t>
         </is>
       </c>
-      <c r="C13" s="39" t="inlineStr">
+      <c r="C13" s="38" t="inlineStr">
         <is>
           <t>10 days</t>
         </is>
       </c>
-      <c r="D13" s="39" t="inlineStr">
+      <c r="D13" s="38" t="inlineStr">
         <is>
           <t>[START_DATE+38]</t>
         </is>
       </c>
-      <c r="E13" s="39" t="inlineStr">
+      <c r="E13" s="38" t="inlineStr">
         <is>
           <t>[START_DATE+48]</t>
         </is>
       </c>
-      <c r="F13" s="38" t="inlineStr">
+      <c r="F13" s="37" t="inlineStr">
         <is>
           <t>Security Design</t>
         </is>
       </c>
-      <c r="G13" s="38" t="inlineStr">
+      <c r="G13" s="37" t="inlineStr">
         <is>
           <t>Security Developer</t>
         </is>
       </c>
-      <c r="H13" s="39" t="inlineStr">
+      <c r="H13" s="38" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="14" ht="26" customHeight="1">
-      <c r="A14" s="40" t="inlineStr">
+      <c r="A14" s="39" t="inlineStr">
         <is>
           <t>Test</t>
         </is>
       </c>
-      <c r="B14" s="41" t="inlineStr">
+      <c r="B14" s="40" t="inlineStr">
         <is>
           <t>Unit Testing</t>
         </is>
       </c>
-      <c r="C14" s="42" t="inlineStr">
+      <c r="C14" s="41" t="inlineStr">
         <is>
           <t>12 days</t>
         </is>
       </c>
-      <c r="D14" s="42" t="inlineStr">
+      <c r="D14" s="41" t="inlineStr">
         <is>
           <t>[START_DATE+40]</t>
         </is>
       </c>
-      <c r="E14" s="42" t="inlineStr">
+      <c r="E14" s="41" t="inlineStr">
         <is>
           <t>[START_DATE+52]</t>
         </is>
       </c>
-      <c r="F14" s="41" t="inlineStr">
+      <c r="F14" s="40" t="inlineStr">
         <is>
           <t>Core Development</t>
         </is>
       </c>
-      <c r="G14" s="41" t="inlineStr">
+      <c r="G14" s="40" t="inlineStr">
         <is>
           <t>Development Team</t>
         </is>
       </c>
-      <c r="H14" s="42" t="inlineStr">
+      <c r="H14" s="41" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="15" ht="26" customHeight="1">
-      <c r="A15" s="37" t="inlineStr">
+      <c r="A15" s="36" t="inlineStr">
         <is>
           <t>Test</t>
         </is>
       </c>
-      <c r="B15" s="38" t="inlineStr">
+      <c r="B15" s="37" t="inlineStr">
         <is>
           <t>Integration Testing</t>
         </is>
       </c>
-      <c r="C15" s="39" t="inlineStr">
+      <c r="C15" s="38" t="inlineStr">
         <is>
           <t>10 days</t>
         </is>
       </c>
-      <c r="D15" s="39" t="inlineStr">
+      <c r="D15" s="38" t="inlineStr">
         <is>
           <t>[START_DATE+50]</t>
         </is>
       </c>
-      <c r="E15" s="39" t="inlineStr">
+      <c r="E15" s="38" t="inlineStr">
         <is>
           <t>[START_DATE+60]</t>
         </is>
       </c>
-      <c r="F15" s="38" t="inlineStr">
+      <c r="F15" s="37" t="inlineStr">
         <is>
           <t>Integration Development</t>
         </is>
       </c>
-      <c r="G15" s="38" t="inlineStr">
+      <c r="G15" s="37" t="inlineStr">
         <is>
           <t>QA Engineer</t>
         </is>
       </c>
-      <c r="H15" s="39" t="inlineStr">
+      <c r="H15" s="38" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="16" ht="26" customHeight="1">
-      <c r="A16" s="40" t="inlineStr">
+      <c r="A16" s="39" t="inlineStr">
         <is>
           <t>Test</t>
         </is>
       </c>
-      <c r="B16" s="41" t="inlineStr">
+      <c r="B16" s="40" t="inlineStr">
         <is>
           <t>System Testing</t>
         </is>
       </c>
-      <c r="C16" s="42" t="inlineStr">
+      <c r="C16" s="41" t="inlineStr">
         <is>
           <t>15 days</t>
         </is>
       </c>
-      <c r="D16" s="42" t="inlineStr">
+      <c r="D16" s="41" t="inlineStr">
         <is>
           <t>[START_DATE+55]</t>
         </is>
       </c>
-      <c r="E16" s="42" t="inlineStr">
+      <c r="E16" s="41" t="inlineStr">
         <is>
           <t>[START_DATE+70]</t>
         </is>
       </c>
-      <c r="F16" s="41" t="inlineStr">
+      <c r="F16" s="40" t="inlineStr">
         <is>
           <t>Unit Testing</t>
         </is>
       </c>
-      <c r="G16" s="41" t="inlineStr">
+      <c r="G16" s="40" t="inlineStr">
         <is>
           <t>QA Team</t>
         </is>
       </c>
-      <c r="H16" s="42" t="inlineStr">
+      <c r="H16" s="41" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="17" ht="26" customHeight="1">
-      <c r="A17" s="37" t="inlineStr">
+      <c r="A17" s="36" t="inlineStr">
         <is>
           <t>Test</t>
         </is>
       </c>
-      <c r="B17" s="38" t="inlineStr">
+      <c r="B17" s="37" t="inlineStr">
         <is>
           <t>Security Testing</t>
         </is>
       </c>
-      <c r="C17" s="39" t="inlineStr">
+      <c r="C17" s="38" t="inlineStr">
         <is>
           <t>7 days</t>
         </is>
       </c>
-      <c r="D17" s="39" t="inlineStr">
+      <c r="D17" s="38" t="inlineStr">
         <is>
           <t>[START_DATE+60]</t>
         </is>
       </c>
-      <c r="E17" s="39" t="inlineStr">
+      <c r="E17" s="38" t="inlineStr">
         <is>
           <t>[START_DATE+67]</t>
         </is>
       </c>
-      <c r="F17" s="38" t="inlineStr">
+      <c r="F17" s="37" t="inlineStr">
         <is>
           <t>Security Implementation</t>
         </is>
       </c>
-      <c r="G17" s="38" t="inlineStr">
+      <c r="G17" s="37" t="inlineStr">
         <is>
           <t>Security Tester</t>
         </is>
       </c>
-      <c r="H17" s="39" t="inlineStr">
+      <c r="H17" s="38" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="18" ht="26" customHeight="1">
-      <c r="A18" s="40" t="inlineStr">
+      <c r="A18" s="39" t="inlineStr">
         <is>
           <t>Test</t>
         </is>
       </c>
-      <c r="B18" s="41" t="inlineStr">
+      <c r="B18" s="40" t="inlineStr">
         <is>
           <t>User Acceptance Testing</t>
         </is>
       </c>
-      <c r="C18" s="42" t="inlineStr">
+      <c r="C18" s="41" t="inlineStr">
         <is>
           <t>10 days</t>
         </is>
       </c>
-      <c r="D18" s="42" t="inlineStr">
+      <c r="D18" s="41" t="inlineStr">
         <is>
           <t>[START_DATE+70]</t>
         </is>
       </c>
-      <c r="E18" s="42" t="inlineStr">
+      <c r="E18" s="41" t="inlineStr">
         <is>
           <t>[START_DATE+80]</t>
         </is>
       </c>
-      <c r="F18" s="41" t="inlineStr">
+      <c r="F18" s="40" t="inlineStr">
         <is>
           <t>System Testing</t>
         </is>
       </c>
-      <c r="G18" s="41" t="inlineStr">
+      <c r="G18" s="40" t="inlineStr">
         <is>
           <t>Business Users</t>
         </is>
       </c>
-      <c r="H18" s="42" t="inlineStr">
+      <c r="H18" s="41" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="19" ht="26" customHeight="1">
-      <c r="A19" s="37" t="inlineStr">
+      <c r="A19" s="36" t="inlineStr">
         <is>
           <t>Deploy</t>
         </is>
       </c>
-      <c r="B19" s="38" t="inlineStr">
+      <c r="B19" s="37" t="inlineStr">
         <is>
           <t>Production Environment Setup</t>
         </is>
       </c>
-      <c r="C19" s="39" t="inlineStr">
+      <c r="C19" s="38" t="inlineStr">
         <is>
           <t>7 days</t>
         </is>
       </c>
-      <c r="D19" s="39" t="inlineStr">
+      <c r="D19" s="38" t="inlineStr">
         <is>
           <t>[START_DATE+75]</t>
         </is>
       </c>
-      <c r="E19" s="39" t="inlineStr">
+      <c r="E19" s="38" t="inlineStr">
         <is>
           <t>[START_DATE+82]</t>
         </is>
       </c>
-      <c r="F19" s="38" t="inlineStr">
+      <c r="F19" s="37" t="inlineStr">
         <is>
           <t>Environment Setup</t>
         </is>
       </c>
-      <c r="G19" s="38" t="inlineStr">
+      <c r="G19" s="37" t="inlineStr">
         <is>
           <t>Infrastructure Team</t>
         </is>
       </c>
-      <c r="H19" s="39" t="inlineStr">
+      <c r="H19" s="38" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="20" ht="26" customHeight="1">
-      <c r="A20" s="40" t="inlineStr">
+      <c r="A20" s="39" t="inlineStr">
         <is>
           <t>Deploy</t>
         </is>
       </c>
-      <c r="B20" s="41" t="inlineStr">
+      <c r="B20" s="40" t="inlineStr">
         <is>
           <t>Pre-Deployment Testing</t>
         </is>
       </c>
-      <c r="C20" s="42" t="inlineStr">
+      <c r="C20" s="41" t="inlineStr">
         <is>
           <t>5 days</t>
         </is>
       </c>
-      <c r="D20" s="42" t="inlineStr">
+      <c r="D20" s="41" t="inlineStr">
         <is>
           <t>[START_DATE+80]</t>
         </is>
       </c>
-      <c r="E20" s="42" t="inlineStr">
+      <c r="E20" s="41" t="inlineStr">
         <is>
           <t>[START_DATE+85]</t>
         </is>
       </c>
-      <c r="F20" s="41" t="inlineStr">
+      <c r="F20" s="40" t="inlineStr">
         <is>
           <t>UAT Complete</t>
         </is>
       </c>
-      <c r="G20" s="41" t="inlineStr">
+      <c r="G20" s="40" t="inlineStr">
         <is>
           <t>QA Lead</t>
         </is>
       </c>
-      <c r="H20" s="42" t="inlineStr">
+      <c r="H20" s="41" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="21" ht="26" customHeight="1">
-      <c r="A21" s="37" t="inlineStr">
+      <c r="A21" s="36" t="inlineStr">
         <is>
           <t>Deploy</t>
         </is>
       </c>
-      <c r="B21" s="38" t="inlineStr">
+      <c r="B21" s="37" t="inlineStr">
         <is>
           <t>Production Deployment</t>
         </is>
       </c>
-      <c r="C21" s="39" t="inlineStr">
+      <c r="C21" s="38" t="inlineStr">
         <is>
           <t>2 days</t>
         </is>
       </c>
-      <c r="D21" s="39" t="inlineStr">
+      <c r="D21" s="38" t="inlineStr">
         <is>
           <t>[START_DATE+85]</t>
         </is>
       </c>
-      <c r="E21" s="39" t="inlineStr">
+      <c r="E21" s="38" t="inlineStr">
         <is>
           <t>[START_DATE+87]</t>
         </is>
       </c>
-      <c r="F21" s="38" t="inlineStr">
+      <c r="F21" s="37" t="inlineStr">
         <is>
           <t>Production Env Ready</t>
         </is>
       </c>
-      <c r="G21" s="38" t="inlineStr">
+      <c r="G21" s="37" t="inlineStr">
         <is>
           <t>Deployment Team</t>
         </is>
       </c>
-      <c r="H21" s="39" t="inlineStr">
+      <c r="H21" s="38" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="22" ht="26" customHeight="1">
-      <c r="A22" s="40" t="inlineStr">
+      <c r="A22" s="39" t="inlineStr">
         <is>
           <t>Deploy</t>
         </is>
       </c>
-      <c r="B22" s="41" t="inlineStr">
+      <c r="B22" s="40" t="inlineStr">
         <is>
           <t>User Training Delivery</t>
         </is>
       </c>
-      <c r="C22" s="42" t="inlineStr">
+      <c r="C22" s="41" t="inlineStr">
         <is>
           <t>15 days</t>
         </is>
       </c>
-      <c r="D22" s="42" t="inlineStr">
+      <c r="D22" s="41" t="inlineStr">
         <is>
           <t>[START_DATE+75]</t>
         </is>
       </c>
-      <c r="E22" s="42" t="inlineStr">
+      <c r="E22" s="41" t="inlineStr">
         <is>
           <t>[START_DATE+90]</t>
         </is>
       </c>
-      <c r="F22" s="41" t="inlineStr">
+      <c r="F22" s="40" t="inlineStr">
         <is>
           <t>UAT Complete</t>
         </is>
       </c>
-      <c r="G22" s="41" t="inlineStr">
+      <c r="G22" s="40" t="inlineStr">
         <is>
           <t>Training Team</t>
         </is>
       </c>
-      <c r="H22" s="42" t="inlineStr">
+      <c r="H22" s="41" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="23" ht="26" customHeight="1">
-      <c r="A23" s="37" t="inlineStr">
+      <c r="A23" s="36" t="inlineStr">
         <is>
           <t>Deploy</t>
         </is>
       </c>
-      <c r="B23" s="38" t="inlineStr">
+      <c r="B23" s="37" t="inlineStr">
         <is>
           <t>Go-Live Support</t>
         </is>
       </c>
-      <c r="C23" s="39" t="inlineStr">
+      <c r="C23" s="38" t="inlineStr">
         <is>
           <t>7 days</t>
         </is>
       </c>
-      <c r="D23" s="39" t="inlineStr">
+      <c r="D23" s="38" t="inlineStr">
         <is>
           <t>[START_DATE+89]</t>
         </is>
       </c>
-      <c r="E23" s="39" t="inlineStr">
+      <c r="E23" s="38" t="inlineStr">
         <is>
           <t>[START_DATE+96]</t>
         </is>
       </c>
-      <c r="F23" s="38" t="inlineStr">
+      <c r="F23" s="37" t="inlineStr">
         <is>
           <t>Deployment Complete</t>
         </is>
       </c>
-      <c r="G23" s="38" t="inlineStr">
+      <c r="G23" s="37" t="inlineStr">
         <is>
           <t>Support Team</t>
         </is>
       </c>
-      <c r="H23" s="39" t="inlineStr">
+      <c r="H23" s="38" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="24" ht="26" customHeight="1">
-      <c r="A24" s="40" t="inlineStr">
+      <c r="A24" s="39" t="inlineStr">
         <is>
           <t>Closure</t>
         </is>
       </c>
-      <c r="B24" s="41" t="inlineStr">
+      <c r="B24" s="40" t="inlineStr">
         <is>
           <t>Hypercare Period</t>
         </is>
       </c>
-      <c r="C24" s="42" t="inlineStr">
+      <c r="C24" s="41" t="inlineStr">
         <is>
           <t>30 days</t>
         </is>
       </c>
-      <c r="D24" s="42" t="inlineStr">
+      <c r="D24" s="41" t="inlineStr">
         <is>
           <t>[START_DATE+96]</t>
         </is>
       </c>
-      <c r="E24" s="42" t="inlineStr">
+      <c r="E24" s="41" t="inlineStr">
         <is>
           <t>[START_DATE+126]</t>
         </is>
       </c>
-      <c r="F24" s="41" t="inlineStr">
+      <c r="F24" s="40" t="inlineStr">
         <is>
           <t>Go-Live</t>
         </is>
       </c>
-      <c r="G24" s="41" t="inlineStr">
+      <c r="G24" s="40" t="inlineStr">
         <is>
           <t>Support Team</t>
         </is>
       </c>
-      <c r="H24" s="42" t="inlineStr">
+      <c r="H24" s="41" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="25" ht="26" customHeight="1">
-      <c r="A25" s="37" t="inlineStr">
+      <c r="A25" s="36" t="inlineStr">
         <is>
           <t>Closure</t>
         </is>
       </c>
-      <c r="B25" s="38" t="inlineStr">
+      <c r="B25" s="37" t="inlineStr">
         <is>
           <t>Project Documentation</t>
         </is>
       </c>
-      <c r="C25" s="39" t="inlineStr">
+      <c r="C25" s="38" t="inlineStr">
         <is>
           <t>10 days</t>
         </is>
       </c>
-      <c r="D25" s="39" t="inlineStr">
+      <c r="D25" s="38" t="inlineStr">
         <is>
           <t>[START_DATE+90]</t>
         </is>
       </c>
-      <c r="E25" s="39" t="inlineStr">
+      <c r="E25" s="38" t="inlineStr">
         <is>
           <t>[START_DATE+100]</t>
         </is>
       </c>
-      <c r="F25" s="38" t="inlineStr">
+      <c r="F25" s="37" t="inlineStr">
         <is>
           <t>All Deliverables</t>
         </is>
       </c>
-      <c r="G25" s="38" t="inlineStr">
+      <c r="G25" s="37" t="inlineStr">
         <is>
           <t>Project Manager</t>
         </is>
       </c>
-      <c r="H25" s="39" t="inlineStr">
+      <c r="H25" s="38" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="26" ht="26" customHeight="1">
-      <c r="A26" s="40" t="inlineStr">
+      <c r="A26" s="39" t="inlineStr">
         <is>
           <t>Closure</t>
         </is>
       </c>
-      <c r="B26" s="41" t="inlineStr">
+      <c r="B26" s="40" t="inlineStr">
         <is>
           <t>Project Closure</t>
         </is>
       </c>
-      <c r="C26" s="42" t="inlineStr">
+      <c r="C26" s="41" t="inlineStr">
         <is>
           <t>2 days</t>
         </is>
       </c>
-      <c r="D26" s="42" t="inlineStr">
+      <c r="D26" s="41" t="inlineStr">
         <is>
           <t>[START_DATE+126]</t>
         </is>
       </c>
-      <c r="E26" s="42" t="inlineStr">
+      <c r="E26" s="41" t="inlineStr">
         <is>
           <t>[START_DATE+128]</t>
         </is>
       </c>
-      <c r="F26" s="41" t="inlineStr">
+      <c r="F26" s="40" t="inlineStr">
         <is>
           <t>Hypercare Complete</t>
         </is>
       </c>
-      <c r="G26" s="41" t="inlineStr">
+      <c r="G26" s="40" t="inlineStr">
         <is>
           <t>Project Manager</t>
         </is>
       </c>
-      <c r="H26" s="42" t="inlineStr">
+      <c r="H26" s="41" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
@@ -2012,295 +2040,295 @@
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1">
-      <c r="A1" s="35" t="inlineStr">
+      <c r="A1" s="34" t="inlineStr">
         <is>
           <t>Milestones</t>
         </is>
       </c>
     </row>
     <row r="2" ht="32" customHeight="1">
-      <c r="A2" s="36" t="inlineStr">
+      <c r="A2" s="35" t="inlineStr">
         <is>
           <t>Milestone ID</t>
         </is>
       </c>
-      <c r="B2" s="36" t="inlineStr">
+      <c r="B2" s="35" t="inlineStr">
         <is>
           <t>Milestone Name</t>
         </is>
       </c>
-      <c r="C2" s="36" t="inlineStr">
+      <c r="C2" s="35" t="inlineStr">
         <is>
           <t>Target Date</t>
         </is>
       </c>
-      <c r="D2" s="36" t="inlineStr">
+      <c r="D2" s="35" t="inlineStr">
         <is>
           <t>Success Criteria</t>
         </is>
       </c>
-      <c r="E2" s="36" t="inlineStr">
+      <c r="E2" s="35" t="inlineStr">
         <is>
           <t>Owner</t>
         </is>
       </c>
-      <c r="F2" s="36" t="inlineStr">
+      <c r="F2" s="35" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
     </row>
     <row r="3" ht="26" customHeight="1">
-      <c r="A3" s="37" t="inlineStr">
+      <c r="A3" s="36" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="B3" s="38" t="inlineStr">
+      <c r="B3" s="37" t="inlineStr">
         <is>
           <t>Project Kickoff</t>
         </is>
       </c>
-      <c r="C3" s="39" t="inlineStr">
+      <c r="C3" s="38" t="inlineStr">
         <is>
           <t>[START_DATE]</t>
         </is>
       </c>
-      <c r="D3" s="38" t="inlineStr">
+      <c r="D3" s="37" t="inlineStr">
         <is>
           <t>All stakeholders attended kickoff meeting; project charter approved</t>
         </is>
       </c>
-      <c r="E3" s="38" t="inlineStr">
+      <c r="E3" s="37" t="inlineStr">
         <is>
           <t>Project Manager</t>
         </is>
       </c>
-      <c r="F3" s="39" t="inlineStr">
+      <c r="F3" s="38" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="4" ht="26" customHeight="1">
-      <c r="A4" s="40" t="inlineStr">
+      <c r="A4" s="39" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="B4" s="41" t="inlineStr">
+      <c r="B4" s="40" t="inlineStr">
         <is>
           <t>Requirements Approved</t>
         </is>
       </c>
-      <c r="C4" s="42" t="inlineStr">
+      <c r="C4" s="41" t="inlineStr">
         <is>
           <t>[START_DATE+5]</t>
         </is>
       </c>
-      <c r="D4" s="41" t="inlineStr">
+      <c r="D4" s="40" t="inlineStr">
         <is>
           <t>Requirements document signed off by business stakeholders</t>
         </is>
       </c>
-      <c r="E4" s="41" t="inlineStr">
+      <c r="E4" s="40" t="inlineStr">
         <is>
           <t>Business Analyst</t>
         </is>
       </c>
-      <c r="F4" s="42" t="inlineStr">
+      <c r="F4" s="41" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="5" ht="26" customHeight="1">
-      <c r="A5" s="37" t="inlineStr">
+      <c r="A5" s="36" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="B5" s="38" t="inlineStr">
+      <c r="B5" s="37" t="inlineStr">
         <is>
           <t>Architecture Approved</t>
         </is>
       </c>
-      <c r="C5" s="39" t="inlineStr">
+      <c r="C5" s="38" t="inlineStr">
         <is>
           <t>[START_DATE+10]</t>
         </is>
       </c>
-      <c r="D5" s="38" t="inlineStr">
+      <c r="D5" s="37" t="inlineStr">
         <is>
           <t>Architecture design approved by technical governance board</t>
         </is>
       </c>
-      <c r="E5" s="38" t="inlineStr">
+      <c r="E5" s="37" t="inlineStr">
         <is>
           <t>Solution Architect</t>
         </is>
       </c>
-      <c r="F5" s="39" t="inlineStr">
+      <c r="F5" s="38" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="6" ht="26" customHeight="1">
-      <c r="A6" s="40" t="inlineStr">
+      <c r="A6" s="39" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="B6" s="41" t="inlineStr">
+      <c r="B6" s="40" t="inlineStr">
         <is>
           <t>Design Complete</t>
         </is>
       </c>
-      <c r="C6" s="42" t="inlineStr">
+      <c r="C6" s="41" t="inlineStr">
         <is>
           <t>[START_DATE+25]</t>
         </is>
       </c>
-      <c r="D6" s="41" t="inlineStr">
+      <c r="D6" s="40" t="inlineStr">
         <is>
           <t>All detailed design documents completed and approved</t>
         </is>
       </c>
-      <c r="E6" s="41" t="inlineStr">
+      <c r="E6" s="40" t="inlineStr">
         <is>
           <t>Technical Lead</t>
         </is>
       </c>
-      <c r="F6" s="42" t="inlineStr">
+      <c r="F6" s="41" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="7" ht="26" customHeight="1">
-      <c r="A7" s="37" t="inlineStr">
+      <c r="A7" s="36" t="inlineStr">
         <is>
           <t>M5</t>
         </is>
       </c>
-      <c r="B7" s="38" t="inlineStr">
+      <c r="B7" s="37" t="inlineStr">
         <is>
           <t>Development Complete</t>
         </is>
       </c>
-      <c r="C7" s="39" t="inlineStr">
+      <c r="C7" s="38" t="inlineStr">
         <is>
           <t>[START_DATE+52]</t>
         </is>
       </c>
-      <c r="D7" s="38" t="inlineStr">
+      <c r="D7" s="37" t="inlineStr">
         <is>
           <t>All development completed; unit tests passing with 80%+ coverage</t>
         </is>
       </c>
-      <c r="E7" s="38" t="inlineStr">
+      <c r="E7" s="37" t="inlineStr">
         <is>
           <t>Development Team Lead</t>
         </is>
       </c>
-      <c r="F7" s="39" t="inlineStr">
+      <c r="F7" s="38" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="8" ht="26" customHeight="1">
-      <c r="A8" s="40" t="inlineStr">
+      <c r="A8" s="39" t="inlineStr">
         <is>
           <t>M6</t>
         </is>
       </c>
-      <c r="B8" s="41" t="inlineStr">
+      <c r="B8" s="40" t="inlineStr">
         <is>
           <t>Testing Complete</t>
         </is>
       </c>
-      <c r="C8" s="42" t="inlineStr">
+      <c r="C8" s="41" t="inlineStr">
         <is>
           <t>[START_DATE+80]</t>
         </is>
       </c>
-      <c r="D8" s="41" t="inlineStr">
+      <c r="D8" s="40" t="inlineStr">
         <is>
           <t>All test phases completed; no critical/high defects open</t>
         </is>
       </c>
-      <c r="E8" s="41" t="inlineStr">
+      <c r="E8" s="40" t="inlineStr">
         <is>
           <t>QA Lead</t>
         </is>
       </c>
-      <c r="F8" s="42" t="inlineStr">
+      <c r="F8" s="41" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="9" ht="26" customHeight="1">
-      <c r="A9" s="37" t="inlineStr">
+      <c r="A9" s="36" t="inlineStr">
         <is>
           <t>M7</t>
         </is>
       </c>
-      <c r="B9" s="38" t="inlineStr">
+      <c r="B9" s="37" t="inlineStr">
         <is>
           <t>Go-Live</t>
         </is>
       </c>
-      <c r="C9" s="39" t="inlineStr">
+      <c r="C9" s="38" t="inlineStr">
         <is>
           <t>[START_DATE+87]</t>
         </is>
       </c>
-      <c r="D9" s="38" t="inlineStr">
+      <c r="D9" s="37" t="inlineStr">
         <is>
           <t>Solution deployed to production; validation complete</t>
         </is>
       </c>
-      <c r="E9" s="38" t="inlineStr">
+      <c r="E9" s="37" t="inlineStr">
         <is>
           <t>Project Manager</t>
         </is>
       </c>
-      <c r="F9" s="39" t="inlineStr">
+      <c r="F9" s="38" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
       </c>
     </row>
     <row r="10" ht="26" customHeight="1">
-      <c r="A10" s="40" t="inlineStr">
+      <c r="A10" s="39" t="inlineStr">
         <is>
           <t>M8</t>
         </is>
       </c>
-      <c r="B10" s="41" t="inlineStr">
+      <c r="B10" s="40" t="inlineStr">
         <is>
           <t>Project Closure</t>
         </is>
       </c>
-      <c r="C10" s="42" t="inlineStr">
+      <c r="C10" s="41" t="inlineStr">
         <is>
           <t>[START_DATE+128]</t>
         </is>
       </c>
-      <c r="D10" s="41" t="inlineStr">
+      <c r="D10" s="40" t="inlineStr">
         <is>
           <t>Hypercare complete; project formally closed with lessons learned</t>
         </is>
       </c>
-      <c r="E10" s="41" t="inlineStr">
+      <c r="E10" s="40" t="inlineStr">
         <is>
           <t>Project Manager</t>
         </is>
       </c>
-      <c r="F10" s="42" t="inlineStr">
+      <c r="F10" s="41" t="inlineStr">
         <is>
           <t>Not Started</t>
         </is>
@@ -2321,7 +2349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -2331,678 +2359,733 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="8" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1">
-      <c r="A1" s="35" t="inlineStr">
+      <c r="A1" s="34" t="inlineStr">
         <is>
           <t>RACI Matrix</t>
         </is>
       </c>
     </row>
     <row r="2" ht="32" customHeight="1">
-      <c r="A2" s="36" t="inlineStr">
+      <c r="A2" s="35" t="inlineStr">
         <is>
           <t>Task/Deliverable</t>
         </is>
       </c>
-      <c r="B2" s="36" t="inlineStr">
+      <c r="B2" s="35" t="inlineStr">
         <is>
           <t>PM</t>
         </is>
       </c>
-      <c r="C2" s="36" t="inlineStr">
+      <c r="C2" s="35" t="inlineStr">
         <is>
           <t>SA</t>
         </is>
       </c>
-      <c r="D2" s="36" t="inlineStr">
+      <c r="D2" s="35" t="inlineStr">
         <is>
           <t>BA</t>
         </is>
       </c>
-      <c r="E2" s="36" t="inlineStr">
+      <c r="E2" s="35" t="inlineStr">
         <is>
           <t>TL</t>
         </is>
       </c>
-      <c r="F2" s="36" t="inlineStr">
+      <c r="F2" s="35" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
       </c>
-      <c r="G2" s="36" t="inlineStr">
+      <c r="G2" s="35" t="inlineStr">
         <is>
           <t>DevOps</t>
         </is>
       </c>
-      <c r="H2" s="36" t="inlineStr">
+      <c r="H2" s="35" t="inlineStr">
         <is>
           <t>SecArch</t>
         </is>
       </c>
-      <c r="I2" s="36" t="inlineStr">
+      <c r="I2" s="35" t="inlineStr">
         <is>
           <t>Client</t>
         </is>
       </c>
     </row>
     <row r="3" ht="26" customHeight="1">
-      <c r="A3" s="37" t="inlineStr">
+      <c r="A3" s="36" t="inlineStr">
         <is>
           <t>Project Charter</t>
         </is>
       </c>
-      <c r="B3" s="43" t="inlineStr">
+      <c r="B3" s="42" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="C3" s="44" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D3" s="44" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E3" s="45" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="F3" s="45" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="G3" s="45" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="H3" s="45" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="I3" s="44" t="inlineStr">
+      <c r="C3" s="43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D3" s="43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E3" s="44" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F3" s="44" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G3" s="44" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="H3" s="44" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="I3" s="43" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
     <row r="4" ht="26" customHeight="1">
-      <c r="A4" s="40" t="inlineStr">
+      <c r="A4" s="39" t="inlineStr">
         <is>
           <t>Requirements Document</t>
         </is>
       </c>
-      <c r="B4" s="43" t="inlineStr">
+      <c r="B4" s="42" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="C4" s="44" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D4" s="46" t="inlineStr">
+      <c r="C4" s="43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D4" s="45" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="E4" s="44" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F4" s="44" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G4" s="45" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="H4" s="44" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I4" s="44" t="inlineStr">
+      <c r="E4" s="43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F4" s="43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G4" s="44" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="H4" s="43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="I4" s="43" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
     </row>
     <row r="5" ht="26" customHeight="1">
-      <c r="A5" s="37" t="inlineStr">
+      <c r="A5" s="36" t="inlineStr">
         <is>
           <t>Architecture Design</t>
         </is>
       </c>
-      <c r="B5" s="43" t="inlineStr">
+      <c r="B5" s="42" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="C5" s="46" t="inlineStr">
+      <c r="C5" s="45" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="D5" s="44" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E5" s="44" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F5" s="45" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="G5" s="44" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H5" s="44" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I5" s="45" t="inlineStr">
+      <c r="D5" s="43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E5" s="43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F5" s="44" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G5" s="43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H5" s="43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="I5" s="44" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
     </row>
     <row r="6" ht="26" customHeight="1">
-      <c r="A6" s="40" t="inlineStr">
+      <c r="A6" s="39" t="inlineStr">
         <is>
           <t>Detailed Design</t>
         </is>
       </c>
-      <c r="B6" s="43" t="inlineStr">
+      <c r="B6" s="42" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="C6" s="44" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D6" s="45" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="E6" s="46" t="inlineStr">
+      <c r="C6" s="43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D6" s="44" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="E6" s="45" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="F6" s="44" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G6" s="44" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H6" s="44" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I6" s="45" t="inlineStr">
+      <c r="F6" s="43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G6" s="43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H6" s="43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="I6" s="44" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
     </row>
     <row r="7" ht="26" customHeight="1">
-      <c r="A7" s="37" t="inlineStr">
+      <c r="A7" s="36" t="inlineStr">
         <is>
           <t>Development</t>
         </is>
       </c>
-      <c r="B7" s="43" t="inlineStr">
+      <c r="B7" s="42" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="C7" s="44" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D7" s="45" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="E7" s="46" t="inlineStr">
+      <c r="C7" s="43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D7" s="44" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="E7" s="45" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="F7" s="45" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="G7" s="44" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H7" s="45" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="I7" s="45" t="inlineStr">
+      <c r="F7" s="44" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G7" s="43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H7" s="44" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="I7" s="44" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
     </row>
     <row r="8" ht="26" customHeight="1">
-      <c r="A8" s="40" t="inlineStr">
+      <c r="A8" s="39" t="inlineStr">
         <is>
           <t>Test Plan</t>
         </is>
       </c>
-      <c r="B8" s="43" t="inlineStr">
+      <c r="B8" s="42" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="C8" s="45" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="D8" s="44" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E8" s="44" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F8" s="46" t="inlineStr">
+      <c r="C8" s="44" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="D8" s="43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E8" s="43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F8" s="45" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="G8" s="45" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="H8" s="44" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I8" s="45" t="inlineStr">
+      <c r="G8" s="44" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="H8" s="43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="I8" s="44" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
     </row>
     <row r="9" ht="26" customHeight="1">
-      <c r="A9" s="37" t="inlineStr">
+      <c r="A9" s="36" t="inlineStr">
         <is>
           <t>Test Execution</t>
         </is>
       </c>
-      <c r="B9" s="43" t="inlineStr">
+      <c r="B9" s="42" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="C9" s="45" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="D9" s="45" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="E9" s="44" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F9" s="46" t="inlineStr">
+      <c r="C9" s="44" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="D9" s="44" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="E9" s="43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F9" s="45" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="G9" s="45" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="H9" s="44" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I9" s="45" t="inlineStr">
+      <c r="G9" s="44" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="H9" s="43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="I9" s="44" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
     </row>
     <row r="10" ht="26" customHeight="1">
-      <c r="A10" s="40" t="inlineStr">
+      <c r="A10" s="39" t="inlineStr">
         <is>
           <t>Security Implementation</t>
         </is>
       </c>
-      <c r="B10" s="43" t="inlineStr">
+      <c r="B10" s="42" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="C10" s="44" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D10" s="45" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="E10" s="44" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F10" s="44" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G10" s="45" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="H10" s="46" t="inlineStr">
+      <c r="C10" s="43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D10" s="44" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="E10" s="43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F10" s="43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G10" s="44" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="H10" s="45" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="I10" s="45" t="inlineStr">
+      <c r="I10" s="44" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
     </row>
     <row r="11" ht="26" customHeight="1">
-      <c r="A11" s="37" t="inlineStr">
+      <c r="A11" s="36" t="inlineStr">
         <is>
           <t>Infrastructure Setup</t>
         </is>
       </c>
-      <c r="B11" s="43" t="inlineStr">
+      <c r="B11" s="42" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="C11" s="44" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D11" s="45" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="E11" s="44" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F11" s="45" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="G11" s="46" t="inlineStr">
+      <c r="C11" s="43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D11" s="44" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="E11" s="43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F11" s="44" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G11" s="45" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="H11" s="44" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I11" s="45" t="inlineStr">
+      <c r="H11" s="43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="I11" s="44" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
     </row>
     <row r="12" ht="26" customHeight="1">
-      <c r="A12" s="40" t="inlineStr">
+      <c r="A12" s="39" t="inlineStr">
         <is>
           <t>User Training</t>
         </is>
       </c>
-      <c r="B12" s="43" t="inlineStr">
+      <c r="B12" s="42" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="C12" s="45" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="D12" s="44" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E12" s="45" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="F12" s="45" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="G12" s="45" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="H12" s="45" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="I12" s="46" t="inlineStr">
+      <c r="C12" s="44" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="D12" s="43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E12" s="44" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F12" s="44" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G12" s="44" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="H12" s="44" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="I12" s="45" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
     </row>
     <row r="13" ht="26" customHeight="1">
-      <c r="A13" s="37" t="inlineStr">
+      <c r="A13" s="36" t="inlineStr">
         <is>
           <t>Go-Live Approval</t>
         </is>
       </c>
-      <c r="B13" s="43" t="inlineStr">
+      <c r="B13" s="42" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="C13" s="44" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D13" s="44" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="E13" s="44" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F13" s="44" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="G13" s="44" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H13" s="44" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I13" s="46" t="inlineStr">
+      <c r="C13" s="43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D13" s="43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E13" s="43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F13" s="43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G13" s="43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H13" s="43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="I13" s="45" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
     </row>
     <row r="14" ht="26" customHeight="1">
-      <c r="A14" s="40" t="inlineStr">
+      <c r="A14" s="39" t="inlineStr">
         <is>
           <t>Production Deployment</t>
         </is>
       </c>
-      <c r="B14" s="43" t="inlineStr">
+      <c r="B14" s="42" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="C14" s="44" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D14" s="45" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="E14" s="44" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F14" s="45" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="G14" s="46" t="inlineStr">
+      <c r="C14" s="43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D14" s="44" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="E14" s="43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F14" s="44" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G14" s="45" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="H14" s="44" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I14" s="45" t="inlineStr">
+      <c r="H14" s="43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="I14" s="44" t="inlineStr">
         <is>
           <t>I</t>
         </is>
       </c>
     </row>
     <row r="15" ht="26" customHeight="1">
-      <c r="A15" s="37" t="inlineStr">
+      <c r="A15" s="36" t="inlineStr">
         <is>
           <t>Post-Go-Live Support</t>
         </is>
       </c>
-      <c r="B15" s="43" t="inlineStr">
+      <c r="B15" s="42" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="C15" s="45" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="D15" s="45" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="E15" s="44" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="F15" s="45" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="G15" s="46" t="inlineStr">
+      <c r="C15" s="44" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="D15" s="44" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="E15" s="43" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F15" s="44" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G15" s="45" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="H15" s="45" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="I15" s="45" t="inlineStr">
-        <is>
-          <t>I</t>
+      <c r="H15" s="44" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="I15" s="44" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="46" t="inlineStr">
+        <is>
+          <t>Legend:</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="47" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="B18" s="48" t="inlineStr">
+        <is>
+          <t>Responsible - Does the work</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="49" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B19" s="48" t="inlineStr">
+        <is>
+          <t>Accountable - Ultimate ownership</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="50" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B20" s="48" t="inlineStr">
+        <is>
+          <t>Consulted - Provides input</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="51" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="B21" s="48" t="inlineStr">
+        <is>
+          <t>Informed - Kept updated</t>
         </is>
       </c>
     </row>
@@ -3039,295 +3122,295 @@
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1">
-      <c r="A1" s="35" t="inlineStr">
+      <c r="A1" s="34" t="inlineStr">
         <is>
           <t>Communications Plan</t>
         </is>
       </c>
     </row>
     <row r="2" ht="32" customHeight="1">
-      <c r="A2" s="36" t="inlineStr">
+      <c r="A2" s="35" t="inlineStr">
         <is>
           <t>Meeting Type</t>
         </is>
       </c>
-      <c r="B2" s="36" t="inlineStr">
+      <c r="B2" s="35" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
       </c>
-      <c r="C2" s="36" t="inlineStr">
+      <c r="C2" s="35" t="inlineStr">
         <is>
           <t>Participants</t>
         </is>
       </c>
-      <c r="D2" s="36" t="inlineStr">
+      <c r="D2" s="35" t="inlineStr">
         <is>
           <t>Purpose</t>
         </is>
       </c>
-      <c r="E2" s="36" t="inlineStr">
+      <c r="E2" s="35" t="inlineStr">
         <is>
           <t>Owner</t>
         </is>
       </c>
-      <c r="F2" s="36" t="inlineStr">
+      <c r="F2" s="35" t="inlineStr">
         <is>
           <t>Day/Time</t>
         </is>
       </c>
     </row>
     <row r="3" ht="26" customHeight="1">
-      <c r="A3" s="37" t="inlineStr">
+      <c r="A3" s="36" t="inlineStr">
         <is>
           <t>Project Kickoff</t>
         </is>
       </c>
-      <c r="B3" s="38" t="inlineStr">
+      <c r="B3" s="37" t="inlineStr">
         <is>
           <t>Once</t>
         </is>
       </c>
-      <c r="C3" s="38" t="inlineStr">
+      <c r="C3" s="37" t="inlineStr">
         <is>
           <t>All stakeholders</t>
         </is>
       </c>
-      <c r="D3" s="38" t="inlineStr">
+      <c r="D3" s="37" t="inlineStr">
         <is>
           <t>Launch project and align on objectives</t>
         </is>
       </c>
-      <c r="E3" s="38" t="inlineStr">
+      <c r="E3" s="37" t="inlineStr">
         <is>
           <t>Project Manager</t>
         </is>
       </c>
-      <c r="F3" s="39" t="inlineStr">
+      <c r="F3" s="38" t="inlineStr">
         <is>
           <t>Day 1</t>
         </is>
       </c>
     </row>
     <row r="4" ht="26" customHeight="1">
-      <c r="A4" s="40" t="inlineStr">
+      <c r="A4" s="39" t="inlineStr">
         <is>
           <t>Steering Committee</t>
         </is>
       </c>
-      <c r="B4" s="41" t="inlineStr">
+      <c r="B4" s="40" t="inlineStr">
         <is>
           <t>Bi-weekly</t>
         </is>
       </c>
-      <c r="C4" s="41" t="inlineStr">
+      <c r="C4" s="40" t="inlineStr">
         <is>
           <t>Executive sponsors and PMO</t>
         </is>
       </c>
-      <c r="D4" s="41" t="inlineStr">
+      <c r="D4" s="40" t="inlineStr">
         <is>
           <t>Strategic direction and issue resolution</t>
         </is>
       </c>
-      <c r="E4" s="41" t="inlineStr">
+      <c r="E4" s="40" t="inlineStr">
         <is>
           <t>Project Manager</t>
         </is>
       </c>
-      <c r="F4" s="42" t="inlineStr">
+      <c r="F4" s="41" t="inlineStr">
         <is>
           <t>Alternate Tuesdays</t>
         </is>
       </c>
     </row>
     <row r="5" ht="26" customHeight="1">
-      <c r="A5" s="37" t="inlineStr">
+      <c r="A5" s="36" t="inlineStr">
         <is>
           <t>Status Meeting</t>
         </is>
       </c>
-      <c r="B5" s="38" t="inlineStr">
+      <c r="B5" s="37" t="inlineStr">
         <is>
           <t>Weekly</t>
         </is>
       </c>
-      <c r="C5" s="38" t="inlineStr">
+      <c r="C5" s="37" t="inlineStr">
         <is>
           <t>Core project team</t>
         </is>
       </c>
-      <c r="D5" s="38" t="inlineStr">
+      <c r="D5" s="37" t="inlineStr">
         <is>
           <t>Review progress and address blockers</t>
         </is>
       </c>
-      <c r="E5" s="38" t="inlineStr">
+      <c r="E5" s="37" t="inlineStr">
         <is>
           <t>Project Manager</t>
         </is>
       </c>
-      <c r="F5" s="39" t="inlineStr">
+      <c r="F5" s="38" t="inlineStr">
         <is>
           <t>Mondays 10:00</t>
         </is>
       </c>
     </row>
     <row r="6" ht="26" customHeight="1">
-      <c r="A6" s="40" t="inlineStr">
+      <c r="A6" s="39" t="inlineStr">
         <is>
           <t>Technical Review</t>
         </is>
       </c>
-      <c r="B6" s="41" t="inlineStr">
+      <c r="B6" s="40" t="inlineStr">
         <is>
           <t>Weekly</t>
         </is>
       </c>
-      <c r="C6" s="41" t="inlineStr">
+      <c r="C6" s="40" t="inlineStr">
         <is>
           <t>Technical leads</t>
         </is>
       </c>
-      <c r="D6" s="41" t="inlineStr">
+      <c r="D6" s="40" t="inlineStr">
         <is>
           <t>Technical design decisions and issues</t>
         </is>
       </c>
-      <c r="E6" s="41" t="inlineStr">
+      <c r="E6" s="40" t="inlineStr">
         <is>
           <t>Solution Architect</t>
         </is>
       </c>
-      <c r="F6" s="42" t="inlineStr">
+      <c r="F6" s="41" t="inlineStr">
         <is>
           <t>Wednesdays 14:00</t>
         </is>
       </c>
     </row>
     <row r="7" ht="26" customHeight="1">
-      <c r="A7" s="37" t="inlineStr">
+      <c r="A7" s="36" t="inlineStr">
         <is>
           <t>Risk Review</t>
         </is>
       </c>
-      <c r="B7" s="38" t="inlineStr">
+      <c r="B7" s="37" t="inlineStr">
         <is>
           <t>Bi-weekly</t>
         </is>
       </c>
-      <c r="C7" s="38" t="inlineStr">
+      <c r="C7" s="37" t="inlineStr">
         <is>
           <t>PM and Risk Manager</t>
         </is>
       </c>
-      <c r="D7" s="38" t="inlineStr">
+      <c r="D7" s="37" t="inlineStr">
         <is>
           <t>Risk assessment and mitigation tracking</t>
         </is>
       </c>
-      <c r="E7" s="38" t="inlineStr">
+      <c r="E7" s="37" t="inlineStr">
         <is>
           <t>Risk Manager</t>
         </is>
       </c>
-      <c r="F7" s="39" t="inlineStr">
+      <c r="F7" s="38" t="inlineStr">
         <is>
           <t>Alternate Fridays</t>
         </is>
       </c>
     </row>
     <row r="8" ht="26" customHeight="1">
-      <c r="A8" s="40" t="inlineStr">
+      <c r="A8" s="39" t="inlineStr">
         <is>
           <t>Sprint Review</t>
         </is>
       </c>
-      <c r="B8" s="41" t="inlineStr">
+      <c r="B8" s="40" t="inlineStr">
         <is>
           <t>Bi-weekly</t>
         </is>
       </c>
-      <c r="C8" s="41" t="inlineStr">
+      <c r="C8" s="40" t="inlineStr">
         <is>
           <t>Development team and stakeholders</t>
         </is>
       </c>
-      <c r="D8" s="41" t="inlineStr">
+      <c r="D8" s="40" t="inlineStr">
         <is>
           <t>Sprint demo and feedback</t>
         </is>
       </c>
-      <c r="E8" s="41" t="inlineStr">
+      <c r="E8" s="40" t="inlineStr">
         <is>
           <t>Technical Lead</t>
         </is>
       </c>
-      <c r="F8" s="42" t="inlineStr">
+      <c r="F8" s="41" t="inlineStr">
         <is>
           <t>End of Sprint</t>
         </is>
       </c>
     </row>
     <row r="9" ht="26" customHeight="1">
-      <c r="A9" s="37" t="inlineStr">
+      <c r="A9" s="36" t="inlineStr">
         <is>
           <t>QA Review</t>
         </is>
       </c>
-      <c r="B9" s="38" t="inlineStr">
+      <c r="B9" s="37" t="inlineStr">
         <is>
           <t>Weekly</t>
         </is>
       </c>
-      <c r="C9" s="38" t="inlineStr">
+      <c r="C9" s="37" t="inlineStr">
         <is>
           <t>QA and Development teams</t>
         </is>
       </c>
-      <c r="D9" s="38" t="inlineStr">
+      <c r="D9" s="37" t="inlineStr">
         <is>
           <t>Test progress and quality metrics</t>
         </is>
       </c>
-      <c r="E9" s="38" t="inlineStr">
+      <c r="E9" s="37" t="inlineStr">
         <is>
           <t>QA Lead</t>
         </is>
       </c>
-      <c r="F9" s="39" t="inlineStr">
+      <c r="F9" s="38" t="inlineStr">
         <is>
           <t>Thursdays 11:00</t>
         </is>
       </c>
     </row>
     <row r="10" ht="26" customHeight="1">
-      <c r="A10" s="40" t="inlineStr">
+      <c r="A10" s="39" t="inlineStr">
         <is>
           <t>Go-Live Readiness</t>
         </is>
       </c>
-      <c r="B10" s="41" t="inlineStr">
+      <c r="B10" s="40" t="inlineStr">
         <is>
           <t>Daily (2 weeks pre)</t>
         </is>
       </c>
-      <c r="C10" s="41" t="inlineStr">
+      <c r="C10" s="40" t="inlineStr">
         <is>
           <t>Go-live team</t>
         </is>
       </c>
-      <c r="D10" s="41" t="inlineStr">
+      <c r="D10" s="40" t="inlineStr">
         <is>
           <t>Go-live preparation and checklist</t>
         </is>
       </c>
-      <c r="E10" s="41" t="inlineStr">
+      <c r="E10" s="40" t="inlineStr">
         <is>
           <t>Project Manager</t>
         </is>
       </c>
-      <c r="F10" s="42" t="inlineStr">
+      <c r="F10" s="41" t="inlineStr">
         <is>
           <t>Daily 09:00</t>
         </is>

--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/project-plan.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/project-plan.xlsx
@@ -2031,9 +2031,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="1" max="1"/>
     <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
     <col width="77" customWidth="1" min="4" max="4"/>
     <col width="28" customWidth="1" min="5" max="5"/>
     <col width="17" customWidth="1" min="6" max="6"/>

--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/project-plan.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/project-plan.xlsx
@@ -852,7 +852,7 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>November 27, 2025</t>
+          <t>November 29, 2025</t>
         </is>
       </c>
     </row>

--- a/solution-template/sample-provider/sample-category/sample-solution/delivery/project-plan.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/delivery/project-plan.xlsx
@@ -852,7 +852,7 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>November 29, 2025</t>
+          <t>November 30, 2025</t>
         </is>
       </c>
     </row>
